--- a/in/analysis/temp/Table_Coupe_Confront.xlsx
+++ b/in/analysis/temp/Table_Coupe_Confront.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mferrand/Desktop/Dropbox/MedievalAvignon/Données Margot/Données complètes/Données confront complètes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670CC459-9ADB-B743-9883-CB86AA5DD464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481FB825-6467-564F-86FC-B3B9ECBDCE00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="920" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data-1653562726978" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="178">
   <si>
     <t>idConfront</t>
   </si>
@@ -525,12 +525,45 @@
   <si>
     <t>745_1</t>
   </si>
+  <si>
+    <t>8_4</t>
+  </si>
+  <si>
+    <t>82_3</t>
+  </si>
+  <si>
+    <t>8_3</t>
+  </si>
+  <si>
+    <t>99_3</t>
+  </si>
+  <si>
+    <t>110_3</t>
+  </si>
+  <si>
+    <t>70_3</t>
+  </si>
+  <si>
+    <t>468_3</t>
+  </si>
+  <si>
+    <t>468_4</t>
+  </si>
+  <si>
+    <t>67_5</t>
+  </si>
+  <si>
+    <t>67_6</t>
+  </si>
+  <si>
+    <t>56_3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1456,18 +1489,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H560"/>
+  <dimension ref="A1:H694"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F421" sqref="F421"/>
+    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
+      <selection activeCell="G560" sqref="G560:G694"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="9">
         <v>2350</v>
       </c>
@@ -1519,7 +1552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="9">
         <v>2451</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="9">
         <v>2448</v>
       </c>
@@ -1571,7 +1604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="9">
         <v>2453</v>
       </c>
@@ -1597,7 +1630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="9">
         <v>2452</v>
       </c>
@@ -1623,7 +1656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="9">
         <v>3200</v>
       </c>
@@ -1649,7 +1682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="11">
         <v>3203</v>
       </c>
@@ -1675,7 +1708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="11">
         <v>3202</v>
       </c>
@@ -1701,7 +1734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="9">
         <v>1908</v>
       </c>
@@ -1727,7 +1760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="9">
         <v>1910</v>
       </c>
@@ -1753,7 +1786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="9">
         <v>4692</v>
       </c>
@@ -1779,7 +1812,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="9">
         <v>4694</v>
       </c>
@@ -1805,7 +1838,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="11">
         <v>2432</v>
       </c>
@@ -1831,7 +1864,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="11">
         <v>2433</v>
       </c>
@@ -1857,7 +1890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="11">
         <v>3204</v>
       </c>
@@ -1883,7 +1916,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="11">
         <v>3206</v>
       </c>
@@ -1909,7 +1942,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="11">
         <v>3205</v>
       </c>
@@ -1935,7 +1968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="11">
         <v>1911</v>
       </c>
@@ -1961,7 +1994,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="11">
         <v>4702</v>
       </c>
@@ -1987,7 +2020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="11">
         <v>4701</v>
       </c>
@@ -2013,7 +2046,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="11">
         <v>4705</v>
       </c>
@@ -2039,7 +2072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="11">
         <v>4703</v>
       </c>
@@ -2065,7 +2098,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="9">
         <v>1109</v>
       </c>
@@ -2091,7 +2124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="9">
         <v>1108</v>
       </c>
@@ -2117,7 +2150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="11">
         <v>1110</v>
       </c>
@@ -2143,7 +2176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="11">
         <v>1111</v>
       </c>
@@ -2169,7 +2202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="A28" s="11">
         <v>1112</v>
       </c>
@@ -2195,7 +2228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="A29" s="11">
         <v>1113</v>
       </c>
@@ -2221,7 +2254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="A30" s="11">
         <v>1114</v>
       </c>
@@ -2247,7 +2280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="A31" s="9">
         <v>1115</v>
       </c>
@@ -2273,7 +2306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8">
       <c r="A32" s="9">
         <v>1116</v>
       </c>
@@ -2299,7 +2332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="9">
         <v>1117</v>
       </c>
@@ -2325,7 +2358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8">
       <c r="A34" s="9">
         <v>1118</v>
       </c>
@@ -2351,7 +2384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="9">
         <v>1120</v>
       </c>
@@ -2377,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8">
       <c r="A36" s="9">
         <v>1119</v>
       </c>
@@ -2403,7 +2436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8">
       <c r="A37" s="11">
         <v>1121</v>
       </c>
@@ -2429,7 +2462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8">
       <c r="A38" s="11">
         <v>1122</v>
       </c>
@@ -2455,7 +2488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8">
       <c r="A39" s="11">
         <v>1123</v>
       </c>
@@ -2481,7 +2514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8">
       <c r="A40" s="11">
         <v>1124</v>
       </c>
@@ -2507,7 +2540,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="11">
         <v>1125</v>
       </c>
@@ -2533,7 +2566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8">
       <c r="A42" s="11">
         <v>1126</v>
       </c>
@@ -2559,7 +2592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8">
       <c r="A43" s="11">
         <v>1127</v>
       </c>
@@ -2585,7 +2618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8">
       <c r="A44" s="9">
         <v>1129</v>
       </c>
@@ -2611,7 +2644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8">
       <c r="A45" s="9">
         <v>1128</v>
       </c>
@@ -2637,7 +2670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8">
       <c r="A46" s="9">
         <v>1130</v>
       </c>
@@ -2663,7 +2696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8">
       <c r="A47" s="9">
         <v>1132</v>
       </c>
@@ -2689,7 +2722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8">
       <c r="A48" s="9">
         <v>1131</v>
       </c>
@@ -2715,7 +2748,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="9">
         <v>1134</v>
       </c>
@@ -2741,7 +2774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="9">
         <v>1135</v>
       </c>
@@ -2767,7 +2800,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="9">
         <v>1136</v>
       </c>
@@ -2793,7 +2826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="9">
         <v>1138</v>
       </c>
@@ -2819,7 +2852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" s="9">
         <v>1137</v>
       </c>
@@ -2845,7 +2878,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="9">
         <v>1139</v>
       </c>
@@ -2871,7 +2904,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="9">
         <v>1140</v>
       </c>
@@ -2897,7 +2930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" s="9">
         <v>1141</v>
       </c>
@@ -2923,7 +2956,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" s="9">
         <v>1142</v>
       </c>
@@ -2949,7 +2982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" s="9">
         <v>1143</v>
       </c>
@@ -2975,7 +3008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" s="9">
         <v>1144</v>
       </c>
@@ -3001,7 +3034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="9">
         <v>1145</v>
       </c>
@@ -3027,7 +3060,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" s="9">
         <v>1146</v>
       </c>
@@ -3053,7 +3086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" s="9">
         <v>1148</v>
       </c>
@@ -3079,7 +3112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" s="9">
         <v>1147</v>
       </c>
@@ -3105,7 +3138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" s="11">
         <v>1551</v>
       </c>
@@ -3131,7 +3164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" s="11">
         <v>1149</v>
       </c>
@@ -3157,7 +3190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8">
       <c r="A66" s="9">
         <v>1150</v>
       </c>
@@ -3183,7 +3216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" s="11">
         <v>1151</v>
       </c>
@@ -3209,7 +3242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" s="9">
         <v>1152</v>
       </c>
@@ -3235,7 +3268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" s="9">
         <v>1154</v>
       </c>
@@ -3261,7 +3294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" s="9">
         <v>1153</v>
       </c>
@@ -3287,7 +3320,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" s="9">
         <v>2301</v>
       </c>
@@ -3313,7 +3346,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" s="9">
         <v>2300</v>
       </c>
@@ -3339,7 +3372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" s="9">
         <v>2299</v>
       </c>
@@ -3365,7 +3398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" s="9">
         <v>2305</v>
       </c>
@@ -3391,7 +3424,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" s="9">
         <v>2304</v>
       </c>
@@ -3417,7 +3450,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" s="9">
         <v>2307</v>
       </c>
@@ -3443,7 +3476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" s="9">
         <v>2306</v>
       </c>
@@ -3469,7 +3502,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" s="9">
         <v>2308</v>
       </c>
@@ -3495,7 +3528,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" s="9">
         <v>2309</v>
       </c>
@@ -3521,7 +3554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" s="9">
         <v>2310</v>
       </c>
@@ -3547,7 +3580,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" s="9">
         <v>2311</v>
       </c>
@@ -3573,7 +3606,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" s="9">
         <v>2312</v>
       </c>
@@ -3599,7 +3632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" s="9">
         <v>2315</v>
       </c>
@@ -3625,7 +3658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" s="9">
         <v>2314</v>
       </c>
@@ -3651,7 +3684,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" s="9">
         <v>2316</v>
       </c>
@@ -3677,7 +3710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" s="9">
         <v>2319</v>
       </c>
@@ -3703,7 +3736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" s="9">
         <v>2320</v>
       </c>
@@ -3729,7 +3762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" s="9">
         <v>2321</v>
       </c>
@@ -3755,7 +3788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" s="11">
         <v>3354</v>
       </c>
@@ -3781,7 +3814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" s="11">
         <v>1188</v>
       </c>
@@ -3807,7 +3840,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" s="11">
         <v>1190</v>
       </c>
@@ -3833,7 +3866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" s="11">
         <v>1189</v>
       </c>
@@ -3859,7 +3892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" s="11">
         <v>1192</v>
       </c>
@@ -3885,7 +3918,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" s="11">
         <v>1191</v>
       </c>
@@ -3911,7 +3944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" s="9">
         <v>1193</v>
       </c>
@@ -3937,7 +3970,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8">
       <c r="A96" s="9">
         <v>1194</v>
       </c>
@@ -3963,7 +3996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" s="9">
         <v>1196</v>
       </c>
@@ -3989,7 +4022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" s="9">
         <v>1195</v>
       </c>
@@ -4015,7 +4048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" s="9">
         <v>1198</v>
       </c>
@@ -4041,7 +4074,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8">
       <c r="A100" s="9">
         <v>1197</v>
       </c>
@@ -4067,7 +4100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8">
       <c r="A101" s="9">
         <v>1199</v>
       </c>
@@ -4093,7 +4126,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8">
       <c r="A102" s="9">
         <v>1201</v>
       </c>
@@ -4119,7 +4152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8">
       <c r="A103" s="9">
         <v>1200</v>
       </c>
@@ -4145,7 +4178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8">
       <c r="A104" s="9">
         <v>1202</v>
       </c>
@@ -4171,7 +4204,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8">
       <c r="A105" s="9">
         <v>1203</v>
       </c>
@@ -4197,7 +4230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8">
       <c r="A106" s="9">
         <v>1205</v>
       </c>
@@ -4223,7 +4256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8">
       <c r="A107" s="9">
         <v>1204</v>
       </c>
@@ -4249,7 +4282,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8">
       <c r="A108" s="9">
         <v>1206</v>
       </c>
@@ -4275,7 +4308,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8">
       <c r="A109" s="9">
         <v>1207</v>
       </c>
@@ -4301,7 +4334,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8">
       <c r="A110" s="9">
         <v>1208</v>
       </c>
@@ -4327,7 +4360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8">
       <c r="A111" s="9">
         <v>1209</v>
       </c>
@@ -4353,7 +4386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8">
       <c r="A112" s="9">
         <v>1210</v>
       </c>
@@ -4379,7 +4412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8">
       <c r="A113" s="9">
         <v>1212</v>
       </c>
@@ -4405,7 +4438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8">
       <c r="A114" s="9">
         <v>1213</v>
       </c>
@@ -4431,7 +4464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8">
       <c r="A115" s="9">
         <v>1215</v>
       </c>
@@ -4457,7 +4490,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8">
       <c r="A116" s="9">
         <v>1214</v>
       </c>
@@ -4483,7 +4516,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8">
       <c r="A117" s="9">
         <v>1216</v>
       </c>
@@ -4509,7 +4542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8">
       <c r="A118" s="9">
         <v>1217</v>
       </c>
@@ -4535,7 +4568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8">
       <c r="A119" s="9">
         <v>1219</v>
       </c>
@@ -4561,7 +4594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8">
       <c r="A120" s="9">
         <v>1218</v>
       </c>
@@ -4587,7 +4620,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8">
       <c r="A121" s="9">
         <v>1221</v>
       </c>
@@ -4613,7 +4646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8">
       <c r="A122" s="9">
         <v>1220</v>
       </c>
@@ -4639,7 +4672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8">
       <c r="A123" s="9">
         <v>2323</v>
       </c>
@@ -4665,7 +4698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8">
       <c r="A124" s="11">
         <v>2962</v>
       </c>
@@ -4691,7 +4724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8">
       <c r="A125" s="11">
         <v>1311</v>
       </c>
@@ -4717,7 +4750,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8">
       <c r="A126" s="11">
         <v>1312</v>
       </c>
@@ -4743,7 +4776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8">
       <c r="A127" s="11">
         <v>1313</v>
       </c>
@@ -4769,7 +4802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8">
       <c r="A128" s="11">
         <v>1314</v>
       </c>
@@ -4795,7 +4828,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8">
       <c r="A129" s="11">
         <v>1315</v>
       </c>
@@ -4821,7 +4854,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8">
       <c r="A130" s="11">
         <v>1316</v>
       </c>
@@ -4847,7 +4880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8">
       <c r="A131" s="11">
         <v>1317</v>
       </c>
@@ -4873,7 +4906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8">
       <c r="A132" s="11">
         <v>1318</v>
       </c>
@@ -4899,7 +4932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8">
       <c r="A133" s="11">
         <v>1319</v>
       </c>
@@ -4925,7 +4958,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8">
       <c r="A134" s="11">
         <v>1320</v>
       </c>
@@ -4951,7 +4984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8">
       <c r="A135" s="9">
         <v>1321</v>
       </c>
@@ -4977,7 +5010,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8">
       <c r="A136" s="9">
         <v>1322</v>
       </c>
@@ -5003,7 +5036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8">
       <c r="A137" s="9">
         <v>1323</v>
       </c>
@@ -5029,7 +5062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8">
       <c r="A138" s="9">
         <v>1324</v>
       </c>
@@ -5055,7 +5088,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8">
       <c r="A139" s="9">
         <v>1325</v>
       </c>
@@ -5081,7 +5114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8">
       <c r="A140" s="9">
         <v>1326</v>
       </c>
@@ -5107,7 +5140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8">
       <c r="A141" s="9">
         <v>1327</v>
       </c>
@@ -5133,7 +5166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8">
       <c r="A142" s="9">
         <v>1329</v>
       </c>
@@ -5159,7 +5192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8">
       <c r="A143" s="11">
         <v>1328</v>
       </c>
@@ -5185,7 +5218,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8">
       <c r="A144" s="11">
         <v>2292</v>
       </c>
@@ -5211,7 +5244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8">
       <c r="A145" s="11">
         <v>2291</v>
       </c>
@@ -5237,7 +5270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8">
       <c r="A146" s="9">
         <v>3221</v>
       </c>
@@ -5263,7 +5296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8">
       <c r="A147" s="9">
         <v>3220</v>
       </c>
@@ -5289,7 +5322,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8">
       <c r="A148" s="9">
         <v>3222</v>
       </c>
@@ -5315,7 +5348,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8">
       <c r="A149" s="9">
         <v>1885</v>
       </c>
@@ -5341,7 +5374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8">
       <c r="A150" s="9">
         <v>1886</v>
       </c>
@@ -5367,7 +5400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8">
       <c r="A151" s="9">
         <v>1888</v>
       </c>
@@ -5393,7 +5426,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8">
       <c r="A152" s="9">
         <v>1887</v>
       </c>
@@ -5419,7 +5452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8">
       <c r="A153" s="9">
         <v>4230</v>
       </c>
@@ -5445,7 +5478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8">
       <c r="A154" s="9">
         <v>4231</v>
       </c>
@@ -5471,7 +5504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8">
       <c r="A155" s="9">
         <v>8035</v>
       </c>
@@ -5497,7 +5530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8">
       <c r="A156" s="9">
         <v>8037</v>
       </c>
@@ -5523,7 +5556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8">
       <c r="A157" s="11">
         <v>2188</v>
       </c>
@@ -5549,7 +5582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8">
       <c r="A158" s="11">
         <v>2186</v>
       </c>
@@ -5575,7 +5608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8">
       <c r="A159" s="11">
         <v>3223</v>
       </c>
@@ -5601,7 +5634,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8">
       <c r="A160" s="11">
         <v>3224</v>
       </c>
@@ -5627,7 +5660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" s="11">
         <v>4237</v>
       </c>
@@ -5653,7 +5686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" s="11">
         <v>2169</v>
       </c>
@@ -5679,7 +5712,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" s="11">
         <v>2173</v>
       </c>
@@ -5705,7 +5738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" s="11">
         <v>2175</v>
       </c>
@@ -5731,7 +5764,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" s="11">
         <v>2178</v>
       </c>
@@ -5757,7 +5790,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" s="11">
         <v>2181</v>
       </c>
@@ -5783,7 +5816,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167" s="11">
         <v>2183</v>
       </c>
@@ -5809,7 +5842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="A168" s="11">
         <v>3232</v>
       </c>
@@ -5835,7 +5868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169" s="11">
         <v>3234</v>
       </c>
@@ -5861,7 +5894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170" s="11">
         <v>3235</v>
       </c>
@@ -5887,7 +5920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171" s="11">
         <v>3236</v>
       </c>
@@ -5913,7 +5946,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8">
       <c r="A172" s="11">
         <v>3238</v>
       </c>
@@ -5939,7 +5972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8">
       <c r="A173" s="11">
         <v>3239</v>
       </c>
@@ -5965,7 +5998,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174" s="11">
         <v>3241</v>
       </c>
@@ -5991,7 +6024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8">
       <c r="A175" s="11">
         <v>3243</v>
       </c>
@@ -6017,7 +6050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8">
       <c r="A176" s="11">
         <v>3244</v>
       </c>
@@ -6043,7 +6076,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8">
       <c r="A177" s="11">
         <v>3245</v>
       </c>
@@ -6069,7 +6102,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8">
       <c r="A178" s="9">
         <v>3381</v>
       </c>
@@ -6095,7 +6128,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8">
       <c r="A179" s="9">
         <v>3380</v>
       </c>
@@ -6121,7 +6154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8">
       <c r="A180" s="9">
         <v>3382</v>
       </c>
@@ -6147,7 +6180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8">
       <c r="A181" s="9">
         <v>3383</v>
       </c>
@@ -6173,7 +6206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8">
       <c r="A182" s="11">
         <v>4267</v>
       </c>
@@ -6199,7 +6232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8">
       <c r="A183" s="11">
         <v>7973</v>
       </c>
@@ -6225,7 +6258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8">
       <c r="A184" s="11">
         <v>7974</v>
       </c>
@@ -6251,7 +6284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8">
       <c r="A185" s="11">
         <v>7975</v>
       </c>
@@ -6277,7 +6310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8">
       <c r="A186" s="11">
         <v>7976</v>
       </c>
@@ -6303,7 +6336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8">
       <c r="A187" s="11">
         <v>7978</v>
       </c>
@@ -6329,7 +6362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8">
       <c r="A188" s="11">
         <v>7979</v>
       </c>
@@ -6355,7 +6388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8">
       <c r="A189" s="11">
         <v>7980</v>
       </c>
@@ -6381,7 +6414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8">
       <c r="A190" s="11">
         <v>7982</v>
       </c>
@@ -6407,7 +6440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8">
       <c r="A191" s="11">
         <v>7981</v>
       </c>
@@ -6433,7 +6466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8">
       <c r="A192" s="11">
         <v>7983</v>
       </c>
@@ -6459,7 +6492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8">
       <c r="A193" s="11">
         <v>7986</v>
       </c>
@@ -6485,7 +6518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8">
       <c r="A194" s="11">
         <v>7988</v>
       </c>
@@ -6511,7 +6544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8">
       <c r="A195" s="11">
         <v>7997</v>
       </c>
@@ -6537,7 +6570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8">
       <c r="A196" s="11">
         <v>7999</v>
       </c>
@@ -6563,7 +6596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8">
       <c r="A197" s="11">
         <v>8000</v>
       </c>
@@ -6589,7 +6622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8">
       <c r="A198" s="9">
         <v>5797</v>
       </c>
@@ -6615,7 +6648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8">
       <c r="A199" s="9">
         <v>1927</v>
       </c>
@@ -6641,7 +6674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8">
       <c r="A200" s="9">
         <v>1926</v>
       </c>
@@ -6667,7 +6700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8">
       <c r="A201" s="9">
         <v>1931</v>
       </c>
@@ -6693,7 +6726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8">
       <c r="A202" s="9">
         <v>1932</v>
       </c>
@@ -6719,7 +6752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8">
       <c r="A203" s="9">
         <v>1936</v>
       </c>
@@ -6745,7 +6778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8">
       <c r="A204" s="9">
         <v>1934</v>
       </c>
@@ -6771,7 +6804,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8">
       <c r="A205" s="9">
         <v>1943</v>
       </c>
@@ -6797,7 +6830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8">
       <c r="A206" s="9">
         <v>1949</v>
       </c>
@@ -6823,7 +6856,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8">
       <c r="A207" s="9">
         <v>1948</v>
       </c>
@@ -6849,7 +6882,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8">
       <c r="A208" s="9">
         <v>1953</v>
       </c>
@@ -6875,7 +6908,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8">
       <c r="A209" s="9">
         <v>1952</v>
       </c>
@@ -6901,7 +6934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8">
       <c r="A210" s="9">
         <v>1957</v>
       </c>
@@ -6927,7 +6960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8">
       <c r="A211" s="9">
         <v>1955</v>
       </c>
@@ -6953,7 +6986,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8">
       <c r="A212" s="11">
         <v>2010</v>
       </c>
@@ -6979,7 +7012,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8">
       <c r="A213" s="11">
         <v>2011</v>
       </c>
@@ -7005,7 +7038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8">
       <c r="A214" s="11">
         <v>2012</v>
       </c>
@@ -7031,7 +7064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8">
       <c r="A215" s="11">
         <v>2013</v>
       </c>
@@ -7057,7 +7090,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8">
       <c r="A216" s="11">
         <v>2016</v>
       </c>
@@ -7083,7 +7116,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8">
       <c r="A217" s="11">
         <v>2015</v>
       </c>
@@ -7109,7 +7142,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8">
       <c r="A218" s="11">
         <v>2018</v>
       </c>
@@ -7135,7 +7168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8">
       <c r="A219" s="11">
         <v>2020</v>
       </c>
@@ -7161,7 +7194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8">
       <c r="A220" s="11">
         <v>2023</v>
       </c>
@@ -7187,7 +7220,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8">
       <c r="A221" s="11">
         <v>2022</v>
       </c>
@@ -7213,7 +7246,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8">
       <c r="A222" s="11">
         <v>2025</v>
       </c>
@@ -7239,7 +7272,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8">
       <c r="A223" s="11">
         <v>2024</v>
       </c>
@@ -7265,7 +7298,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8">
       <c r="A224" s="9">
         <v>2029</v>
       </c>
@@ -7291,7 +7324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8">
       <c r="A225" s="9">
         <v>2028</v>
       </c>
@@ -7317,7 +7350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8">
       <c r="A226" s="9">
         <v>2032</v>
       </c>
@@ -7343,7 +7376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8">
       <c r="A227" s="9">
         <v>2031</v>
       </c>
@@ -7369,7 +7402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8">
       <c r="A228" s="9">
         <v>2034</v>
       </c>
@@ -7395,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8">
       <c r="A229" s="9">
         <v>2033</v>
       </c>
@@ -7421,7 +7454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8">
       <c r="A230" s="11">
         <v>2036</v>
       </c>
@@ -7447,7 +7480,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8">
       <c r="A231" s="11">
         <v>2035</v>
       </c>
@@ -7473,7 +7506,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8">
       <c r="A232" s="9">
         <v>2038</v>
       </c>
@@ -7499,7 +7532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8">
       <c r="A233" s="9">
         <v>2084</v>
       </c>
@@ -7525,7 +7558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8">
       <c r="A234" s="11">
         <v>1774</v>
       </c>
@@ -7551,7 +7584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8">
       <c r="A235" s="9">
         <v>4446</v>
       </c>
@@ -7577,7 +7610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8">
       <c r="A236" s="9">
         <v>4447</v>
       </c>
@@ -7603,7 +7636,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8">
       <c r="A237" s="9">
         <v>4451</v>
       </c>
@@ -7629,7 +7662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8">
       <c r="A238" s="9">
         <v>4453</v>
       </c>
@@ -7655,7 +7688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8">
       <c r="A239" s="9">
         <v>2065</v>
       </c>
@@ -7681,7 +7714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8">
       <c r="A240" s="9">
         <v>2067</v>
       </c>
@@ -7707,7 +7740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8">
       <c r="A241" s="9">
         <v>2064</v>
       </c>
@@ -7733,7 +7766,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8">
       <c r="A242" s="9">
         <v>2069</v>
       </c>
@@ -7759,7 +7792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8">
       <c r="A243" s="9">
         <v>2068</v>
       </c>
@@ -7785,7 +7818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8">
       <c r="A244" s="9">
         <v>2070</v>
       </c>
@@ -7811,7 +7844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8">
       <c r="A245" s="9">
         <v>2071</v>
       </c>
@@ -7837,7 +7870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8">
       <c r="A246" s="9">
         <v>2072</v>
       </c>
@@ -7863,7 +7896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8">
       <c r="A247" s="9">
         <v>2073</v>
       </c>
@@ -7889,7 +7922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8">
       <c r="A248" s="9">
         <v>2074</v>
       </c>
@@ -7915,7 +7948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8">
       <c r="A249" s="9">
         <v>2075</v>
       </c>
@@ -7941,7 +7974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8">
       <c r="A250" s="9">
         <v>2076</v>
       </c>
@@ -7967,7 +8000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8">
       <c r="A251" s="9">
         <v>2077</v>
       </c>
@@ -7993,7 +8026,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8">
       <c r="A252" s="9">
         <v>2078</v>
       </c>
@@ -8019,7 +8052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8">
       <c r="A253" s="9">
         <v>2083</v>
       </c>
@@ -8045,7 +8078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8">
       <c r="A254" s="11">
         <v>3294</v>
       </c>
@@ -8071,7 +8104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8">
       <c r="A255" s="9">
         <v>3302</v>
       </c>
@@ -8097,7 +8130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8">
       <c r="A256" s="9">
         <v>3303</v>
       </c>
@@ -8123,7 +8156,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8">
       <c r="A257" s="9">
         <v>3305</v>
       </c>
@@ -8149,7 +8182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8">
       <c r="A258" s="9">
         <v>3304</v>
       </c>
@@ -8175,7 +8208,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8">
       <c r="A259" s="9">
         <v>3306</v>
       </c>
@@ -8201,7 +8234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8">
       <c r="A260" s="9">
         <v>3308</v>
       </c>
@@ -8227,7 +8260,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8">
       <c r="A261" s="9">
         <v>3311</v>
       </c>
@@ -8253,7 +8286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8">
       <c r="A262" s="9">
         <v>3310</v>
       </c>
@@ -8279,7 +8312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8">
       <c r="A263" s="9">
         <v>2163</v>
       </c>
@@ -8305,7 +8338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8">
       <c r="A264" s="9">
         <v>2164</v>
       </c>
@@ -8331,7 +8364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8">
       <c r="A265" s="11">
         <v>2231</v>
       </c>
@@ -8357,7 +8390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8">
       <c r="A266" s="11">
         <v>2233</v>
       </c>
@@ -8383,7 +8416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8">
       <c r="A267" s="11">
         <v>2240</v>
       </c>
@@ -8409,7 +8442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8">
       <c r="A268" s="11">
         <v>2236</v>
       </c>
@@ -8435,7 +8468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8">
       <c r="A269" s="11">
         <v>3373</v>
       </c>
@@ -8461,7 +8494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8">
       <c r="A270" s="11">
         <v>3378</v>
       </c>
@@ -8487,7 +8520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8">
       <c r="A271" s="11">
         <v>3379</v>
       </c>
@@ -8513,7 +8546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8">
       <c r="A272" s="9">
         <v>3385</v>
       </c>
@@ -8539,7 +8572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8">
       <c r="A273" s="11">
         <v>3384</v>
       </c>
@@ -8565,7 +8598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8">
       <c r="A274" s="11">
         <v>3386</v>
       </c>
@@ -8591,7 +8624,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8">
       <c r="A275" s="11">
         <v>1905</v>
       </c>
@@ -8617,7 +8650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8">
       <c r="A276" s="11">
         <v>1906</v>
       </c>
@@ -8643,7 +8676,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8">
       <c r="A277" s="11">
         <v>4549</v>
       </c>
@@ -8669,7 +8702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8">
       <c r="A278" s="11">
         <v>4547</v>
       </c>
@@ -8695,7 +8728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8">
       <c r="A279" s="11">
         <v>4550</v>
       </c>
@@ -8721,7 +8754,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8">
       <c r="A280" s="11">
         <v>4551</v>
       </c>
@@ -8747,7 +8780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8">
       <c r="A281" s="11">
         <v>4552</v>
       </c>
@@ -8773,7 +8806,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8">
       <c r="A282" s="11">
         <v>4554</v>
       </c>
@@ -8799,7 +8832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8">
       <c r="A283" s="11">
         <v>4553</v>
       </c>
@@ -8825,7 +8858,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8">
       <c r="A284" s="11">
         <v>8096</v>
       </c>
@@ -8851,7 +8884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8">
       <c r="A285" s="11">
         <v>8098</v>
       </c>
@@ -8877,7 +8910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8">
       <c r="A286" s="11">
         <v>8097</v>
       </c>
@@ -8903,7 +8936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8">
       <c r="A287" s="11">
         <v>4271</v>
       </c>
@@ -8929,7 +8962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8">
       <c r="A288" s="11">
         <v>4273</v>
       </c>
@@ -8955,7 +8988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8">
       <c r="A289" s="9">
         <v>4325</v>
       </c>
@@ -8981,7 +9014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8">
       <c r="A290" s="9">
         <v>4332</v>
       </c>
@@ -9007,7 +9040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8">
       <c r="A291" s="9">
         <v>4470</v>
       </c>
@@ -9033,7 +9066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8">
       <c r="A292" s="9">
         <v>4475</v>
       </c>
@@ -9059,7 +9092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8">
       <c r="A293" s="9">
         <v>4477</v>
       </c>
@@ -9085,7 +9118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8">
       <c r="A294" s="9">
         <v>4480</v>
       </c>
@@ -9111,7 +9144,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8">
       <c r="A295" s="9">
         <v>4483</v>
       </c>
@@ -9137,7 +9170,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8">
       <c r="A296" s="9">
         <v>4487</v>
       </c>
@@ -9163,7 +9196,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8">
       <c r="A297" s="9">
         <v>4490</v>
       </c>
@@ -9189,7 +9222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8">
       <c r="A298" s="9">
         <v>4493</v>
       </c>
@@ -9215,7 +9248,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8">
       <c r="A299" s="9">
         <v>4498</v>
       </c>
@@ -9241,7 +9274,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8">
       <c r="A300" s="11">
         <v>2091</v>
       </c>
@@ -9267,7 +9300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8">
       <c r="A301" s="11">
         <v>2092</v>
       </c>
@@ -9293,7 +9326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8">
       <c r="A302" s="11">
         <v>2131</v>
       </c>
@@ -9319,7 +9352,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8">
       <c r="A303" s="11">
         <v>3265</v>
       </c>
@@ -9345,7 +9378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8">
       <c r="A304" s="11">
         <v>3268</v>
       </c>
@@ -9371,7 +9404,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8">
       <c r="A305" s="11">
         <v>3564</v>
       </c>
@@ -9397,7 +9430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8">
       <c r="A306" s="11">
         <v>3587</v>
       </c>
@@ -9423,7 +9456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8">
       <c r="A307" s="11">
         <v>1729</v>
       </c>
@@ -9449,7 +9482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8">
       <c r="A308" s="11">
         <v>1732</v>
       </c>
@@ -9475,7 +9508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8">
       <c r="A309" s="11">
         <v>1734</v>
       </c>
@@ -9501,7 +9534,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8">
       <c r="A310" s="11">
         <v>1739</v>
       </c>
@@ -9527,7 +9560,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8">
       <c r="A311" s="11">
         <v>1738</v>
       </c>
@@ -9553,7 +9586,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8">
       <c r="A312" s="11">
         <v>1741</v>
       </c>
@@ -9579,7 +9612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8">
       <c r="A313" s="11">
         <v>1744</v>
       </c>
@@ -9605,7 +9638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8">
       <c r="A314" s="11">
         <v>1750</v>
       </c>
@@ -9631,7 +9664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8">
       <c r="A315" s="11">
         <v>1749</v>
       </c>
@@ -9657,7 +9690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8">
       <c r="A316" s="11">
         <v>1752</v>
       </c>
@@ -9683,7 +9716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8">
       <c r="A317" s="11">
         <v>1476</v>
       </c>
@@ -9709,7 +9742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8">
       <c r="A318" s="11">
         <v>2331</v>
       </c>
@@ -9735,7 +9768,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8">
       <c r="A319" s="11">
         <v>2335</v>
       </c>
@@ -9761,7 +9794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8">
       <c r="A320" s="11">
         <v>2333</v>
       </c>
@@ -9787,7 +9820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8">
       <c r="A321" s="11">
         <v>2338</v>
       </c>
@@ -9813,7 +9846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8">
       <c r="A322" s="9">
         <v>7519</v>
       </c>
@@ -9839,7 +9872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8">
       <c r="A323" s="9">
         <v>7109</v>
       </c>
@@ -9865,7 +9898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8">
       <c r="A324" s="9">
         <v>7520</v>
       </c>
@@ -9891,7 +9924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8">
       <c r="A325" s="9">
         <v>7110</v>
       </c>
@@ -9917,7 +9950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8">
       <c r="A326" s="11">
         <v>1468</v>
       </c>
@@ -9943,7 +9976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8">
       <c r="A327" s="9">
         <v>1469</v>
       </c>
@@ -9969,7 +10002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8">
       <c r="A328" s="9">
         <v>1470</v>
       </c>
@@ -9995,7 +10028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8">
       <c r="A329" s="9">
         <v>1471</v>
       </c>
@@ -10021,7 +10054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8">
       <c r="A330" s="11">
         <v>1472</v>
       </c>
@@ -10047,7 +10080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8">
       <c r="A331" s="11">
         <v>3523</v>
       </c>
@@ -10073,7 +10106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8">
       <c r="A332" s="11">
         <v>1477</v>
       </c>
@@ -10099,7 +10132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8">
       <c r="A333" s="11">
         <v>1478</v>
       </c>
@@ -10125,7 +10158,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8">
       <c r="A334" s="11">
         <v>1479</v>
       </c>
@@ -10151,7 +10184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8">
       <c r="A335" s="11">
         <v>1480</v>
       </c>
@@ -10177,7 +10210,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8">
       <c r="A336" s="11">
         <v>1481</v>
       </c>
@@ -10203,7 +10236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8">
       <c r="A337" s="11">
         <v>1482</v>
       </c>
@@ -10229,7 +10262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8">
       <c r="A338" s="11">
         <v>1483</v>
       </c>
@@ -10255,7 +10288,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8">
       <c r="A339" s="9">
         <v>1484</v>
       </c>
@@ -10281,7 +10314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8">
       <c r="A340" s="9">
         <v>1545</v>
       </c>
@@ -10307,7 +10340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8">
       <c r="A341" s="9">
         <v>1546</v>
       </c>
@@ -10333,7 +10366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8">
       <c r="A342" s="9">
         <v>1485</v>
       </c>
@@ -10359,7 +10392,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8">
       <c r="A343" s="9">
         <v>1486</v>
       </c>
@@ -10385,7 +10418,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8">
       <c r="A344" s="11">
         <v>1487</v>
       </c>
@@ -10411,7 +10444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8">
       <c r="A345" s="11">
         <v>1488</v>
       </c>
@@ -10437,7 +10470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8">
       <c r="A346" s="11">
         <v>1489</v>
       </c>
@@ -10463,7 +10496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8">
       <c r="A347" s="11">
         <v>1490</v>
       </c>
@@ -10489,7 +10522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8">
       <c r="A348" s="11">
         <v>1491</v>
       </c>
@@ -10515,7 +10548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8">
       <c r="A349" s="9">
         <v>1492</v>
       </c>
@@ -10541,7 +10574,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8">
       <c r="A350" s="11">
         <v>1493</v>
       </c>
@@ -10567,7 +10600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8">
       <c r="A351" s="11">
         <v>1494</v>
       </c>
@@ -10593,7 +10626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8">
       <c r="A352" s="11">
         <v>1495</v>
       </c>
@@ -10619,7 +10652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8">
       <c r="A353" s="9">
         <v>1496</v>
       </c>
@@ -10645,7 +10678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8">
       <c r="A354" s="9">
         <v>1497</v>
       </c>
@@ -10671,7 +10704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8">
       <c r="A355" s="9">
         <v>1498</v>
       </c>
@@ -10697,7 +10730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8">
       <c r="A356" s="11">
         <v>1499</v>
       </c>
@@ -10723,7 +10756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8">
       <c r="A357" s="11">
         <v>1500</v>
       </c>
@@ -10749,7 +10782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8">
       <c r="A358" s="11">
         <v>1501</v>
       </c>
@@ -10775,7 +10808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8">
       <c r="A359" s="9">
         <v>2360</v>
       </c>
@@ -10801,7 +10834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8">
       <c r="A360" s="9">
         <v>4688</v>
       </c>
@@ -10827,7 +10860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8">
       <c r="A361" s="9">
         <v>4689</v>
       </c>
@@ -10853,7 +10886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8">
       <c r="A362" s="9">
         <v>4690</v>
       </c>
@@ -10879,7 +10912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8">
       <c r="A363" s="11">
         <v>2128</v>
       </c>
@@ -10905,7 +10938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8">
       <c r="A364" s="11">
         <v>2127</v>
       </c>
@@ -10931,7 +10964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8">
       <c r="A365" s="11">
         <v>2140</v>
       </c>
@@ -10957,7 +10990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8">
       <c r="A366" s="11">
         <v>2141</v>
       </c>
@@ -10983,7 +11016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8">
       <c r="A367" s="9">
         <v>2132</v>
       </c>
@@ -11009,7 +11042,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8">
       <c r="A368" s="9">
         <v>2138</v>
       </c>
@@ -11035,7 +11068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8">
       <c r="A369" s="9">
         <v>4639</v>
       </c>
@@ -11061,7 +11094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8">
       <c r="A370" s="9">
         <v>4643</v>
       </c>
@@ -11087,7 +11120,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8">
       <c r="A371" s="9">
         <v>4645</v>
       </c>
@@ -11113,7 +11146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8">
       <c r="A372" s="11">
         <v>3399</v>
       </c>
@@ -11139,7 +11172,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8">
       <c r="A373" s="11">
         <v>3404</v>
       </c>
@@ -11165,7 +11198,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8">
       <c r="A374" s="11">
         <v>3410</v>
       </c>
@@ -11191,7 +11224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8">
       <c r="A375" s="11">
         <v>3414</v>
       </c>
@@ -11217,7 +11250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8">
       <c r="A376" s="11">
         <v>3423</v>
       </c>
@@ -11243,7 +11276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8">
       <c r="A377" s="11">
         <v>3426</v>
       </c>
@@ -11269,7 +11302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8">
       <c r="A378" s="11">
         <v>3434</v>
       </c>
@@ -11295,7 +11328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8">
       <c r="A379" s="11">
         <v>3439</v>
       </c>
@@ -11321,7 +11354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8">
       <c r="A380" s="11">
         <v>3443</v>
       </c>
@@ -11347,7 +11380,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8">
       <c r="A381" s="11">
         <v>3451</v>
       </c>
@@ -11373,7 +11406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8">
       <c r="A382" s="11">
         <v>3453</v>
       </c>
@@ -11399,7 +11432,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8">
       <c r="A383" s="11">
         <v>3591</v>
       </c>
@@ -11425,7 +11458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8">
       <c r="A384" s="9">
         <v>4583</v>
       </c>
@@ -11451,7 +11484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8">
       <c r="A385" s="9">
         <v>4596</v>
       </c>
@@ -11477,7 +11510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8">
       <c r="A386" s="9">
         <v>4599</v>
       </c>
@@ -11503,7 +11536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:8">
       <c r="A387" s="9">
         <v>4604</v>
       </c>
@@ -11529,7 +11562,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:8">
       <c r="A388" s="11">
         <v>4606</v>
       </c>
@@ -11555,7 +11588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8">
       <c r="A389" s="9">
         <v>4387</v>
       </c>
@@ -11581,7 +11614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8">
       <c r="A390" s="9">
         <v>4584</v>
       </c>
@@ -11607,7 +11640,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8">
       <c r="A391" s="11">
         <v>4587</v>
       </c>
@@ -11633,7 +11666,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8">
       <c r="A392" s="9">
         <v>4590</v>
       </c>
@@ -11659,7 +11692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8">
       <c r="A393" s="9">
         <v>4593</v>
       </c>
@@ -11685,7 +11718,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8">
       <c r="A394" s="11">
         <v>2227</v>
       </c>
@@ -11711,7 +11744,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8">
       <c r="A395" s="11">
         <v>2229</v>
       </c>
@@ -11737,7 +11770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8">
       <c r="A396" s="11">
         <v>3377</v>
       </c>
@@ -11763,7 +11796,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="397" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" s="12" customFormat="1">
       <c r="A397" s="12">
         <v>1088</v>
       </c>
@@ -11789,7 +11822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8">
       <c r="A398">
         <v>1089</v>
       </c>
@@ -11815,7 +11848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8">
       <c r="A399">
         <v>1090</v>
       </c>
@@ -11841,7 +11874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8">
       <c r="A400">
         <v>1091</v>
       </c>
@@ -11867,7 +11900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8">
       <c r="A401">
         <v>1092</v>
       </c>
@@ -11893,7 +11926,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8">
       <c r="A402">
         <v>1070</v>
       </c>
@@ -11919,7 +11952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8">
       <c r="A403">
         <v>1071</v>
       </c>
@@ -11945,7 +11978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8">
       <c r="A404">
         <v>1072</v>
       </c>
@@ -11971,7 +12004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8">
       <c r="A405">
         <v>1073</v>
       </c>
@@ -11997,7 +12030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8">
       <c r="A406">
         <v>1076</v>
       </c>
@@ -12023,7 +12056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8">
       <c r="A407">
         <v>1093</v>
       </c>
@@ -12049,7 +12082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8">
       <c r="A408">
         <v>1074</v>
       </c>
@@ -12075,7 +12108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8">
       <c r="A409">
         <v>1075</v>
       </c>
@@ -12101,7 +12134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8">
       <c r="A410">
         <v>1094</v>
       </c>
@@ -12127,7 +12160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:8">
       <c r="A411">
         <v>1095</v>
       </c>
@@ -12153,7 +12186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:8">
       <c r="A412">
         <v>1096</v>
       </c>
@@ -12179,7 +12212,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8">
       <c r="A413">
         <v>1097</v>
       </c>
@@ -12205,7 +12238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8">
       <c r="A414">
         <v>1098</v>
       </c>
@@ -12231,7 +12264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8">
       <c r="A415">
         <v>1099</v>
       </c>
@@ -12257,7 +12290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8">
       <c r="A416">
         <v>1100</v>
       </c>
@@ -12283,7 +12316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8">
       <c r="A417">
         <v>1101</v>
       </c>
@@ -12309,7 +12342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8">
       <c r="A418">
         <v>1102</v>
       </c>
@@ -12335,7 +12368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8">
       <c r="A419">
         <v>1963</v>
       </c>
@@ -12361,7 +12394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8">
       <c r="A420">
         <v>1967</v>
       </c>
@@ -12387,7 +12420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8">
       <c r="A421">
         <v>1966</v>
       </c>
@@ -12413,7 +12446,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8">
       <c r="A422">
         <v>1973</v>
       </c>
@@ -12439,7 +12472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8">
       <c r="A423">
         <v>1971</v>
       </c>
@@ -12465,7 +12498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8">
       <c r="A424">
         <v>2047</v>
       </c>
@@ -12491,7 +12524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8">
       <c r="A425">
         <v>2124</v>
       </c>
@@ -12517,7 +12550,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8">
       <c r="A426">
         <v>2129</v>
       </c>
@@ -12543,7 +12576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8">
       <c r="A427">
         <v>2134</v>
       </c>
@@ -12569,7 +12602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8">
       <c r="A428">
         <v>2135</v>
       </c>
@@ -12595,7 +12628,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8">
       <c r="A429">
         <v>2139</v>
       </c>
@@ -12621,7 +12654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8">
       <c r="A430">
         <v>2137</v>
       </c>
@@ -12647,7 +12680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8">
       <c r="A431">
         <v>2281</v>
       </c>
@@ -12673,7 +12706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8">
       <c r="A432">
         <v>2280</v>
       </c>
@@ -12699,7 +12732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8">
       <c r="A433">
         <v>2298</v>
       </c>
@@ -12725,7 +12758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8">
       <c r="A434">
         <v>2332</v>
       </c>
@@ -12751,7 +12784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:8">
       <c r="A435">
         <v>2352</v>
       </c>
@@ -12777,7 +12810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:8">
       <c r="A436">
         <v>2356</v>
       </c>
@@ -12803,7 +12836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8">
       <c r="A437">
         <v>2358</v>
       </c>
@@ -12829,7 +12862,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8">
       <c r="A438">
         <v>2361</v>
       </c>
@@ -12855,7 +12888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8">
       <c r="A439">
         <v>2365</v>
       </c>
@@ -12881,7 +12914,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8">
       <c r="A440">
         <v>2368</v>
       </c>
@@ -12907,7 +12940,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8">
       <c r="A441">
         <v>2366</v>
       </c>
@@ -12933,7 +12966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8">
       <c r="A442">
         <v>2367</v>
       </c>
@@ -12959,7 +12992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8">
       <c r="A443">
         <v>2369</v>
       </c>
@@ -12985,7 +13018,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8">
       <c r="A444">
         <v>2372</v>
       </c>
@@ -13011,7 +13044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8">
       <c r="A445">
         <v>2371</v>
       </c>
@@ -13037,7 +13070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8">
       <c r="A446">
         <v>2376</v>
       </c>
@@ -13063,7 +13096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8">
       <c r="A447">
         <v>2373</v>
       </c>
@@ -13089,7 +13122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8">
       <c r="A448">
         <v>2375</v>
       </c>
@@ -13115,7 +13148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8">
       <c r="A449">
         <v>2377</v>
       </c>
@@ -13141,7 +13174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8">
       <c r="A450">
         <v>2380</v>
       </c>
@@ -13167,7 +13200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8">
       <c r="A451">
         <v>2378</v>
       </c>
@@ -13193,7 +13226,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8">
       <c r="A452">
         <v>2381</v>
       </c>
@@ -13219,7 +13252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8">
       <c r="A453">
         <v>2383</v>
       </c>
@@ -13245,7 +13278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8">
       <c r="A454">
         <v>2384</v>
       </c>
@@ -13271,7 +13304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8">
       <c r="A455">
         <v>2385</v>
       </c>
@@ -13297,7 +13330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8">
       <c r="A456">
         <v>2386</v>
       </c>
@@ -13323,7 +13356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8">
       <c r="A457">
         <v>2391</v>
       </c>
@@ -13349,7 +13382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8">
       <c r="A458">
         <v>2388</v>
       </c>
@@ -13375,7 +13408,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8">
       <c r="A459">
         <v>2387</v>
       </c>
@@ -13401,7 +13434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8">
       <c r="A460">
         <v>2393</v>
       </c>
@@ -13427,7 +13460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8">
       <c r="A461">
         <v>2394</v>
       </c>
@@ -13453,7 +13486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8">
       <c r="A462">
         <v>2399</v>
       </c>
@@ -13479,7 +13512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8">
       <c r="A463">
         <v>2400</v>
       </c>
@@ -13505,7 +13538,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8">
       <c r="A464">
         <v>2395</v>
       </c>
@@ -13531,7 +13564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8">
       <c r="A465">
         <v>2449</v>
       </c>
@@ -13557,7 +13590,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8">
       <c r="A466">
         <v>3296</v>
       </c>
@@ -13583,7 +13616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8">
       <c r="A467">
         <v>3425</v>
       </c>
@@ -13609,7 +13642,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8">
       <c r="A468">
         <v>3433</v>
       </c>
@@ -13635,7 +13668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8">
       <c r="A469">
         <v>3478</v>
       </c>
@@ -13661,7 +13694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8">
       <c r="A470">
         <v>5798</v>
       </c>
@@ -13687,7 +13720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8">
       <c r="A471">
         <v>3480</v>
       </c>
@@ -13713,7 +13746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8">
       <c r="A472">
         <v>3509</v>
       </c>
@@ -13739,7 +13772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8">
       <c r="A473">
         <v>3539</v>
       </c>
@@ -13765,7 +13798,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8">
       <c r="A474">
         <v>3540</v>
       </c>
@@ -13791,7 +13824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8">
       <c r="A475">
         <v>1865</v>
       </c>
@@ -13817,7 +13850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8">
       <c r="A476">
         <v>1904</v>
       </c>
@@ -13843,7 +13876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8">
       <c r="A477">
         <v>1901</v>
       </c>
@@ -13869,7 +13902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8">
       <c r="A478">
         <v>5796</v>
       </c>
@@ -13895,7 +13928,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8">
       <c r="A479">
         <v>4263</v>
       </c>
@@ -13921,7 +13954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8">
       <c r="A480">
         <v>4266</v>
       </c>
@@ -13947,7 +13980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8">
       <c r="A481">
         <v>4268</v>
       </c>
@@ -13973,7 +14006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8">
       <c r="A482">
         <v>4281</v>
       </c>
@@ -13999,7 +14032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8">
       <c r="A483">
         <v>4463</v>
       </c>
@@ -14025,7 +14058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8">
       <c r="A484">
         <v>4474</v>
       </c>
@@ -14051,7 +14084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:8">
       <c r="A485">
         <v>4478</v>
       </c>
@@ -14077,7 +14110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:8">
       <c r="A486">
         <v>4481</v>
       </c>
@@ -14103,7 +14136,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8">
       <c r="A487">
         <v>4484</v>
       </c>
@@ -14129,7 +14162,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8">
       <c r="A488">
         <v>4488</v>
       </c>
@@ -14155,7 +14188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8">
       <c r="A489">
         <v>4491</v>
       </c>
@@ -14181,7 +14214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8">
       <c r="A490">
         <v>4494</v>
       </c>
@@ -14207,7 +14240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8">
       <c r="A491">
         <v>4499</v>
       </c>
@@ -14233,7 +14266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8">
       <c r="A492">
         <v>4518</v>
       </c>
@@ -14259,7 +14292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8">
       <c r="A493">
         <v>4519</v>
       </c>
@@ -14285,7 +14318,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8">
       <c r="A494">
         <v>4526</v>
       </c>
@@ -14311,7 +14344,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8">
       <c r="A495">
         <v>4386</v>
       </c>
@@ -14337,7 +14370,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8">
       <c r="A496">
         <v>4586</v>
       </c>
@@ -14363,7 +14396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8">
       <c r="A497">
         <v>4589</v>
       </c>
@@ -14389,7 +14422,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8">
       <c r="A498">
         <v>4592</v>
       </c>
@@ -14415,7 +14448,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8">
       <c r="A499">
         <v>4594</v>
       </c>
@@ -14441,7 +14474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8">
       <c r="A500">
         <v>5795</v>
       </c>
@@ -14467,7 +14500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8">
       <c r="A501">
         <v>4598</v>
       </c>
@@ -14493,7 +14526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:8">
       <c r="A502">
         <v>4601</v>
       </c>
@@ -14519,7 +14552,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8">
       <c r="A503">
         <v>4602</v>
       </c>
@@ -14545,7 +14578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8">
       <c r="A504">
         <v>4611</v>
       </c>
@@ -14571,7 +14604,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8">
       <c r="A505">
         <v>4613</v>
       </c>
@@ -14597,7 +14630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8">
       <c r="A506">
         <v>4649</v>
       </c>
@@ -14623,7 +14656,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8">
       <c r="A507">
         <v>4651</v>
       </c>
@@ -14649,7 +14682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8">
       <c r="A508">
         <v>4687</v>
       </c>
@@ -14675,7 +14708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8">
       <c r="A509">
         <v>4691</v>
       </c>
@@ -14701,7 +14734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8">
       <c r="A510">
         <v>4726</v>
       </c>
@@ -14727,7 +14760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8">
       <c r="A511">
         <v>7582</v>
       </c>
@@ -14753,7 +14786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8">
       <c r="A512">
         <v>7625</v>
       </c>
@@ -14779,7 +14812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8">
       <c r="A513">
         <v>7623</v>
       </c>
@@ -14805,7 +14838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8">
       <c r="A514">
         <v>7627</v>
       </c>
@@ -14831,7 +14864,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8">
       <c r="A515">
         <v>7628</v>
       </c>
@@ -14857,7 +14890,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8">
       <c r="A516">
         <v>7636</v>
       </c>
@@ -14883,7 +14916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8">
       <c r="A517">
         <v>7638</v>
       </c>
@@ -14909,7 +14942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8">
       <c r="A518">
         <v>7648</v>
       </c>
@@ -14935,7 +14968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8">
       <c r="A519">
         <v>7674</v>
       </c>
@@ -14961,7 +14994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8">
       <c r="A520">
         <v>7675</v>
       </c>
@@ -14987,7 +15020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8">
       <c r="A521">
         <v>7682</v>
       </c>
@@ -15013,7 +15046,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8">
       <c r="A522">
         <v>7972</v>
       </c>
@@ -15039,7 +15072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8">
       <c r="A523">
         <v>7966</v>
       </c>
@@ -15065,7 +15098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8">
       <c r="A524">
         <v>7998</v>
       </c>
@@ -15091,7 +15124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8">
       <c r="A525">
         <v>8045</v>
       </c>
@@ -15117,7 +15150,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8">
       <c r="A526">
         <v>8049</v>
       </c>
@@ -15143,7 +15176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8">
       <c r="A527">
         <v>8050</v>
       </c>
@@ -15169,7 +15202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8">
       <c r="A528">
         <v>8051</v>
       </c>
@@ -15195,7 +15228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8">
       <c r="A529">
         <v>8057</v>
       </c>
@@ -15221,7 +15254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8">
       <c r="A530">
         <v>7155</v>
       </c>
@@ -15247,7 +15280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8">
       <c r="A531">
         <v>7131</v>
       </c>
@@ -15273,7 +15306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8">
       <c r="A532">
         <v>7132</v>
       </c>
@@ -15299,7 +15332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8">
       <c r="A533">
         <v>7160</v>
       </c>
@@ -15325,7 +15358,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8">
       <c r="A534">
         <v>7161</v>
       </c>
@@ -15351,7 +15384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8">
       <c r="A535">
         <v>7162</v>
       </c>
@@ -15377,7 +15410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8">
       <c r="A536">
         <v>7085</v>
       </c>
@@ -15403,7 +15436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8">
       <c r="A537">
         <v>7086</v>
       </c>
@@ -15429,7 +15462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8">
       <c r="A538">
         <v>7163</v>
       </c>
@@ -15455,7 +15488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8">
       <c r="A539">
         <v>7087</v>
       </c>
@@ -15481,7 +15514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8">
       <c r="A540">
         <v>7154</v>
       </c>
@@ -15507,7 +15540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:8">
       <c r="A541">
         <v>7164</v>
       </c>
@@ -15533,7 +15566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:8">
       <c r="A542">
         <v>7165</v>
       </c>
@@ -15559,7 +15592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8">
       <c r="A543">
         <v>7124</v>
       </c>
@@ -15585,7 +15618,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8">
       <c r="A544">
         <v>7119</v>
       </c>
@@ -15611,7 +15644,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8">
       <c r="A545">
         <v>7120</v>
       </c>
@@ -15637,7 +15670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8">
       <c r="A546">
         <v>7121</v>
       </c>
@@ -15663,7 +15696,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8">
       <c r="A547">
         <v>7122</v>
       </c>
@@ -15689,7 +15722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8">
       <c r="A548">
         <v>7158</v>
       </c>
@@ -15715,7 +15748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8">
       <c r="A549">
         <v>7125</v>
       </c>
@@ -15741,7 +15774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8">
       <c r="A550">
         <v>7157</v>
       </c>
@@ -15767,7 +15800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8">
       <c r="A551">
         <v>7138</v>
       </c>
@@ -15793,7 +15826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8">
       <c r="A552">
         <v>7123</v>
       </c>
@@ -15819,7 +15852,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8">
       <c r="A553">
         <v>7159</v>
       </c>
@@ -15845,7 +15878,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8">
       <c r="A554">
         <v>7083</v>
       </c>
@@ -15871,7 +15904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8">
       <c r="A555">
         <v>7084</v>
       </c>
@@ -15897,7 +15930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:8">
       <c r="A556">
         <v>7088</v>
       </c>
@@ -15923,7 +15956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8">
       <c r="A557">
         <v>7126</v>
       </c>
@@ -15949,7 +15982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8">
       <c r="A558">
         <v>7127</v>
       </c>
@@ -15975,7 +16008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8">
       <c r="A559">
         <v>7156</v>
       </c>
@@ -16001,7 +16034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="560" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" s="8" customFormat="1">
       <c r="A560" s="8">
         <v>7115</v>
       </c>
@@ -16025,6 +16058,3484 @@
       </c>
       <c r="H560" s="8" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561">
+        <v>1109</v>
+      </c>
+      <c r="B561" t="s">
+        <v>7</v>
+      </c>
+      <c r="C561">
+        <v>102</v>
+      </c>
+      <c r="D561" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E561">
+        <v>8</v>
+      </c>
+      <c r="F561" t="s">
+        <v>167</v>
+      </c>
+      <c r="G561" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H561" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562">
+        <v>1108</v>
+      </c>
+      <c r="B562" t="s">
+        <v>38</v>
+      </c>
+      <c r="C562">
+        <v>102</v>
+      </c>
+      <c r="D562" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E562">
+        <v>8</v>
+      </c>
+      <c r="F562" t="s">
+        <v>167</v>
+      </c>
+      <c r="G562" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H562" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563">
+        <v>1476</v>
+      </c>
+      <c r="B563" t="s">
+        <v>10</v>
+      </c>
+      <c r="C563">
+        <v>106</v>
+      </c>
+      <c r="D563" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E563">
+        <v>82</v>
+      </c>
+      <c r="F563" t="s">
+        <v>168</v>
+      </c>
+      <c r="G563" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H563" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564">
+        <v>1110</v>
+      </c>
+      <c r="B564" t="s">
+        <v>20</v>
+      </c>
+      <c r="C564">
+        <v>107</v>
+      </c>
+      <c r="D564" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E564">
+        <v>8</v>
+      </c>
+      <c r="F564" t="s">
+        <v>124</v>
+      </c>
+      <c r="G564" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H564" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565">
+        <v>1111</v>
+      </c>
+      <c r="B565" t="s">
+        <v>20</v>
+      </c>
+      <c r="C565">
+        <v>109</v>
+      </c>
+      <c r="D565" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E565">
+        <v>8</v>
+      </c>
+      <c r="F565" t="s">
+        <v>124</v>
+      </c>
+      <c r="G565" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H565" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566">
+        <v>1112</v>
+      </c>
+      <c r="B566" t="s">
+        <v>20</v>
+      </c>
+      <c r="C566">
+        <v>118</v>
+      </c>
+      <c r="D566" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E566">
+        <v>8</v>
+      </c>
+      <c r="F566" t="s">
+        <v>124</v>
+      </c>
+      <c r="G566" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H566" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567">
+        <v>1113</v>
+      </c>
+      <c r="B567" t="s">
+        <v>20</v>
+      </c>
+      <c r="C567">
+        <v>119</v>
+      </c>
+      <c r="D567" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E567">
+        <v>8</v>
+      </c>
+      <c r="F567" t="s">
+        <v>123</v>
+      </c>
+      <c r="G567" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H567" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568">
+        <v>1114</v>
+      </c>
+      <c r="B568" t="s">
+        <v>20</v>
+      </c>
+      <c r="C568">
+        <v>120</v>
+      </c>
+      <c r="D568" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E568">
+        <v>8</v>
+      </c>
+      <c r="F568" t="s">
+        <v>123</v>
+      </c>
+      <c r="G568" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H568" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569">
+        <v>1115</v>
+      </c>
+      <c r="B569" t="s">
+        <v>38</v>
+      </c>
+      <c r="C569">
+        <v>132</v>
+      </c>
+      <c r="D569" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E569">
+        <v>8</v>
+      </c>
+      <c r="F569" t="s">
+        <v>169</v>
+      </c>
+      <c r="G569" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H569" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570">
+        <v>1116</v>
+      </c>
+      <c r="B570" t="s">
+        <v>20</v>
+      </c>
+      <c r="C570">
+        <v>132</v>
+      </c>
+      <c r="D570" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E570">
+        <v>8</v>
+      </c>
+      <c r="F570" t="s">
+        <v>169</v>
+      </c>
+      <c r="G570" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H570" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571">
+        <v>1117</v>
+      </c>
+      <c r="B571" t="s">
+        <v>38</v>
+      </c>
+      <c r="C571">
+        <v>133</v>
+      </c>
+      <c r="D571" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E571">
+        <v>8</v>
+      </c>
+      <c r="F571" t="s">
+        <v>169</v>
+      </c>
+      <c r="G571" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H571" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572">
+        <v>1118</v>
+      </c>
+      <c r="B572" t="s">
+        <v>7</v>
+      </c>
+      <c r="C572">
+        <v>133</v>
+      </c>
+      <c r="D572" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E572">
+        <v>8</v>
+      </c>
+      <c r="F572" t="s">
+        <v>169</v>
+      </c>
+      <c r="G572" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H572" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573">
+        <v>1119</v>
+      </c>
+      <c r="B573" t="s">
+        <v>38</v>
+      </c>
+      <c r="C573">
+        <v>134</v>
+      </c>
+      <c r="D573" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E573">
+        <v>8</v>
+      </c>
+      <c r="F573" t="s">
+        <v>169</v>
+      </c>
+      <c r="G573" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H573" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574">
+        <v>1120</v>
+      </c>
+      <c r="B574" t="s">
+        <v>7</v>
+      </c>
+      <c r="C574">
+        <v>134</v>
+      </c>
+      <c r="D574" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E574">
+        <v>8</v>
+      </c>
+      <c r="F574" t="s">
+        <v>169</v>
+      </c>
+      <c r="G574" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H574" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575">
+        <v>1121</v>
+      </c>
+      <c r="B575" t="s">
+        <v>20</v>
+      </c>
+      <c r="C575">
+        <v>140</v>
+      </c>
+      <c r="D575" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E575">
+        <v>8</v>
+      </c>
+      <c r="F575" t="s">
+        <v>123</v>
+      </c>
+      <c r="G575" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H575" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8">
+      <c r="A576">
+        <v>1122</v>
+      </c>
+      <c r="B576" t="s">
+        <v>20</v>
+      </c>
+      <c r="C576">
+        <v>141</v>
+      </c>
+      <c r="D576" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E576">
+        <v>8</v>
+      </c>
+      <c r="F576" t="s">
+        <v>123</v>
+      </c>
+      <c r="G576" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H576" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577">
+        <v>1123</v>
+      </c>
+      <c r="B577" t="s">
+        <v>20</v>
+      </c>
+      <c r="C577">
+        <v>142</v>
+      </c>
+      <c r="D577" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E577">
+        <v>8</v>
+      </c>
+      <c r="F577" t="s">
+        <v>123</v>
+      </c>
+      <c r="G577" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H577" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578">
+        <v>1124</v>
+      </c>
+      <c r="B578" t="s">
+        <v>20</v>
+      </c>
+      <c r="C578">
+        <v>143</v>
+      </c>
+      <c r="D578" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E578">
+        <v>8</v>
+      </c>
+      <c r="F578" t="s">
+        <v>123</v>
+      </c>
+      <c r="G578" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H578" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8">
+      <c r="A579">
+        <v>1126</v>
+      </c>
+      <c r="B579" t="s">
+        <v>7</v>
+      </c>
+      <c r="C579">
+        <v>145</v>
+      </c>
+      <c r="D579" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E579">
+        <v>8</v>
+      </c>
+      <c r="F579" t="s">
+        <v>123</v>
+      </c>
+      <c r="G579" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H579" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8">
+      <c r="A580">
+        <v>1125</v>
+      </c>
+      <c r="B580" t="s">
+        <v>38</v>
+      </c>
+      <c r="C580">
+        <v>145</v>
+      </c>
+      <c r="D580" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E580">
+        <v>8</v>
+      </c>
+      <c r="F580" t="s">
+        <v>123</v>
+      </c>
+      <c r="G580" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H580" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8">
+      <c r="A581">
+        <v>1127</v>
+      </c>
+      <c r="B581" t="s">
+        <v>7</v>
+      </c>
+      <c r="C581">
+        <v>146</v>
+      </c>
+      <c r="D581" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E581">
+        <v>8</v>
+      </c>
+      <c r="F581" t="s">
+        <v>123</v>
+      </c>
+      <c r="G581" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H581" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8">
+      <c r="A582">
+        <v>1128</v>
+      </c>
+      <c r="B582" t="s">
+        <v>125</v>
+      </c>
+      <c r="C582">
+        <v>161</v>
+      </c>
+      <c r="D582" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E582">
+        <v>8</v>
+      </c>
+      <c r="F582" t="s">
+        <v>169</v>
+      </c>
+      <c r="G582" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H582" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8">
+      <c r="A583">
+        <v>1129</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+      <c r="C583">
+        <v>161</v>
+      </c>
+      <c r="D583" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E583">
+        <v>8</v>
+      </c>
+      <c r="F583" t="s">
+        <v>169</v>
+      </c>
+      <c r="G583" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H583" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8">
+      <c r="A584">
+        <v>1130</v>
+      </c>
+      <c r="B584" t="s">
+        <v>7</v>
+      </c>
+      <c r="C584">
+        <v>162</v>
+      </c>
+      <c r="D584" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E584">
+        <v>8</v>
+      </c>
+      <c r="F584" t="s">
+        <v>169</v>
+      </c>
+      <c r="G584" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H584" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8">
+      <c r="A585">
+        <v>1132</v>
+      </c>
+      <c r="B585" t="s">
+        <v>20</v>
+      </c>
+      <c r="C585">
+        <v>167</v>
+      </c>
+      <c r="D585" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E585">
+        <v>8</v>
+      </c>
+      <c r="F585" t="s">
+        <v>169</v>
+      </c>
+      <c r="G585" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H585" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586">
+        <v>1131</v>
+      </c>
+      <c r="B586" t="s">
+        <v>125</v>
+      </c>
+      <c r="C586">
+        <v>167</v>
+      </c>
+      <c r="D586" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E586">
+        <v>8</v>
+      </c>
+      <c r="F586" t="s">
+        <v>169</v>
+      </c>
+      <c r="G586" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H586" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587">
+        <v>1134</v>
+      </c>
+      <c r="B587" t="s">
+        <v>7</v>
+      </c>
+      <c r="C587">
+        <v>170</v>
+      </c>
+      <c r="D587" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E587">
+        <v>8</v>
+      </c>
+      <c r="F587" t="s">
+        <v>169</v>
+      </c>
+      <c r="G587" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H587" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8">
+      <c r="A588">
+        <v>1135</v>
+      </c>
+      <c r="B588" t="s">
+        <v>125</v>
+      </c>
+      <c r="C588">
+        <v>171</v>
+      </c>
+      <c r="D588" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E588">
+        <v>8</v>
+      </c>
+      <c r="F588" t="s">
+        <v>167</v>
+      </c>
+      <c r="G588" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H588" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8">
+      <c r="A589">
+        <v>1136</v>
+      </c>
+      <c r="B589" t="s">
+        <v>10</v>
+      </c>
+      <c r="C589">
+        <v>171</v>
+      </c>
+      <c r="D589" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E589">
+        <v>8</v>
+      </c>
+      <c r="F589" t="s">
+        <v>167</v>
+      </c>
+      <c r="G589" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H589" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8">
+      <c r="A590">
+        <v>1138</v>
+      </c>
+      <c r="B590" t="s">
+        <v>7</v>
+      </c>
+      <c r="C590">
+        <v>176</v>
+      </c>
+      <c r="D590" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E590">
+        <v>8</v>
+      </c>
+      <c r="F590" t="s">
+        <v>167</v>
+      </c>
+      <c r="G590" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H590" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591">
+        <v>1137</v>
+      </c>
+      <c r="B591" t="s">
+        <v>38</v>
+      </c>
+      <c r="C591">
+        <v>176</v>
+      </c>
+      <c r="D591" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E591">
+        <v>8</v>
+      </c>
+      <c r="F591" t="s">
+        <v>167</v>
+      </c>
+      <c r="G591" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H591" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592">
+        <v>1140</v>
+      </c>
+      <c r="B592" t="s">
+        <v>12</v>
+      </c>
+      <c r="C592">
+        <v>190</v>
+      </c>
+      <c r="D592" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E592">
+        <v>8</v>
+      </c>
+      <c r="F592" t="s">
+        <v>167</v>
+      </c>
+      <c r="G592" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H592" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="A593">
+        <v>1139</v>
+      </c>
+      <c r="B593" t="s">
+        <v>38</v>
+      </c>
+      <c r="C593">
+        <v>190</v>
+      </c>
+      <c r="D593" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E593">
+        <v>8</v>
+      </c>
+      <c r="F593" t="s">
+        <v>167</v>
+      </c>
+      <c r="G593" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H593" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8">
+      <c r="A594">
+        <v>1141</v>
+      </c>
+      <c r="B594" t="s">
+        <v>38</v>
+      </c>
+      <c r="C594">
+        <v>193</v>
+      </c>
+      <c r="D594" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E594">
+        <v>8</v>
+      </c>
+      <c r="F594" t="s">
+        <v>167</v>
+      </c>
+      <c r="G594" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H594" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595">
+        <v>1142</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+      <c r="C595">
+        <v>194</v>
+      </c>
+      <c r="D595" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E595">
+        <v>8</v>
+      </c>
+      <c r="F595" t="s">
+        <v>167</v>
+      </c>
+      <c r="G595" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H595" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="A596">
+        <v>1143</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+      <c r="C596">
+        <v>195</v>
+      </c>
+      <c r="D596" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E596">
+        <v>8</v>
+      </c>
+      <c r="F596" t="s">
+        <v>167</v>
+      </c>
+      <c r="G596" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H596" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597">
+        <v>1144</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+      <c r="C597">
+        <v>196</v>
+      </c>
+      <c r="D597" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E597">
+        <v>8</v>
+      </c>
+      <c r="F597" t="s">
+        <v>167</v>
+      </c>
+      <c r="G597" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H597" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598">
+        <v>1145</v>
+      </c>
+      <c r="B598" t="s">
+        <v>38</v>
+      </c>
+      <c r="C598">
+        <v>201</v>
+      </c>
+      <c r="D598" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E598">
+        <v>8</v>
+      </c>
+      <c r="F598" t="s">
+        <v>167</v>
+      </c>
+      <c r="G598" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H598" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599">
+        <v>1146</v>
+      </c>
+      <c r="B599" t="s">
+        <v>38</v>
+      </c>
+      <c r="C599">
+        <v>202</v>
+      </c>
+      <c r="D599" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E599">
+        <v>8</v>
+      </c>
+      <c r="F599" t="s">
+        <v>167</v>
+      </c>
+      <c r="G599" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H599" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600">
+        <v>1148</v>
+      </c>
+      <c r="B600" t="s">
+        <v>20</v>
+      </c>
+      <c r="C600">
+        <v>203</v>
+      </c>
+      <c r="D600" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E600">
+        <v>8</v>
+      </c>
+      <c r="F600" t="s">
+        <v>167</v>
+      </c>
+      <c r="G600" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H600" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601">
+        <v>1147</v>
+      </c>
+      <c r="B601" t="s">
+        <v>7</v>
+      </c>
+      <c r="C601">
+        <v>203</v>
+      </c>
+      <c r="D601" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E601">
+        <v>8</v>
+      </c>
+      <c r="F601" t="s">
+        <v>167</v>
+      </c>
+      <c r="G601" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H601" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602">
+        <v>1468</v>
+      </c>
+      <c r="B602" t="s">
+        <v>7</v>
+      </c>
+      <c r="C602">
+        <v>219</v>
+      </c>
+      <c r="D602" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E602">
+        <v>99</v>
+      </c>
+      <c r="F602" t="s">
+        <v>153</v>
+      </c>
+      <c r="G602" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H602" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603">
+        <v>1469</v>
+      </c>
+      <c r="B603" t="s">
+        <v>7</v>
+      </c>
+      <c r="C603">
+        <v>220</v>
+      </c>
+      <c r="D603" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E603">
+        <v>99</v>
+      </c>
+      <c r="F603" t="s">
+        <v>154</v>
+      </c>
+      <c r="G603" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H603" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604">
+        <v>1470</v>
+      </c>
+      <c r="B604" t="s">
+        <v>7</v>
+      </c>
+      <c r="C604">
+        <v>221</v>
+      </c>
+      <c r="D604" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E604">
+        <v>99</v>
+      </c>
+      <c r="F604" t="s">
+        <v>154</v>
+      </c>
+      <c r="G604" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H604" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605">
+        <v>1471</v>
+      </c>
+      <c r="B605" t="s">
+        <v>7</v>
+      </c>
+      <c r="C605">
+        <v>222</v>
+      </c>
+      <c r="D605" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E605">
+        <v>99</v>
+      </c>
+      <c r="F605" t="s">
+        <v>170</v>
+      </c>
+      <c r="G605" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H605" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606">
+        <v>1477</v>
+      </c>
+      <c r="B606" t="s">
+        <v>20</v>
+      </c>
+      <c r="C606">
+        <v>228</v>
+      </c>
+      <c r="D606" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E606">
+        <v>110</v>
+      </c>
+      <c r="F606" t="s">
+        <v>155</v>
+      </c>
+      <c r="G606" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H606" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607">
+        <v>1478</v>
+      </c>
+      <c r="B607" t="s">
+        <v>20</v>
+      </c>
+      <c r="C607">
+        <v>229</v>
+      </c>
+      <c r="D607" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E607">
+        <v>110</v>
+      </c>
+      <c r="F607" t="s">
+        <v>155</v>
+      </c>
+      <c r="G607" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H607" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608">
+        <v>1479</v>
+      </c>
+      <c r="B608" t="s">
+        <v>20</v>
+      </c>
+      <c r="C608">
+        <v>230</v>
+      </c>
+      <c r="D608" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E608">
+        <v>110</v>
+      </c>
+      <c r="F608" t="s">
+        <v>155</v>
+      </c>
+      <c r="G608" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H608" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609">
+        <v>1480</v>
+      </c>
+      <c r="B609" t="s">
+        <v>20</v>
+      </c>
+      <c r="C609">
+        <v>231</v>
+      </c>
+      <c r="D609" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E609">
+        <v>110</v>
+      </c>
+      <c r="F609" t="s">
+        <v>156</v>
+      </c>
+      <c r="G609" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H609" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610">
+        <v>1481</v>
+      </c>
+      <c r="B610" t="s">
+        <v>20</v>
+      </c>
+      <c r="C610">
+        <v>232</v>
+      </c>
+      <c r="D610" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E610">
+        <v>110</v>
+      </c>
+      <c r="F610" t="s">
+        <v>156</v>
+      </c>
+      <c r="G610" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H610" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611">
+        <v>1482</v>
+      </c>
+      <c r="B611" t="s">
+        <v>20</v>
+      </c>
+      <c r="C611">
+        <v>233</v>
+      </c>
+      <c r="D611" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E611">
+        <v>110</v>
+      </c>
+      <c r="F611" t="s">
+        <v>156</v>
+      </c>
+      <c r="G611" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H611" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612">
+        <v>1483</v>
+      </c>
+      <c r="B612" t="s">
+        <v>20</v>
+      </c>
+      <c r="C612">
+        <v>234</v>
+      </c>
+      <c r="D612" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E612">
+        <v>110</v>
+      </c>
+      <c r="F612" t="s">
+        <v>156</v>
+      </c>
+      <c r="G612" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H612" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613">
+        <v>1484</v>
+      </c>
+      <c r="B613" t="s">
+        <v>20</v>
+      </c>
+      <c r="C613">
+        <v>235</v>
+      </c>
+      <c r="D613" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E613">
+        <v>110</v>
+      </c>
+      <c r="F613" t="s">
+        <v>171</v>
+      </c>
+      <c r="G613" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H613" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614">
+        <v>1545</v>
+      </c>
+      <c r="B614" t="s">
+        <v>12</v>
+      </c>
+      <c r="C614">
+        <v>236</v>
+      </c>
+      <c r="D614" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E614">
+        <v>110</v>
+      </c>
+      <c r="F614" t="s">
+        <v>171</v>
+      </c>
+      <c r="G614" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H614" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="A615">
+        <v>1546</v>
+      </c>
+      <c r="B615" t="s">
+        <v>12</v>
+      </c>
+      <c r="C615">
+        <v>237</v>
+      </c>
+      <c r="D615" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E615">
+        <v>110</v>
+      </c>
+      <c r="F615" t="s">
+        <v>171</v>
+      </c>
+      <c r="G615" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H615" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="A616">
+        <v>1485</v>
+      </c>
+      <c r="B616" t="s">
+        <v>20</v>
+      </c>
+      <c r="C616">
+        <v>238</v>
+      </c>
+      <c r="D616" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E616">
+        <v>110</v>
+      </c>
+      <c r="F616" t="s">
+        <v>171</v>
+      </c>
+      <c r="G616" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H616" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617">
+        <v>1486</v>
+      </c>
+      <c r="B617" t="s">
+        <v>20</v>
+      </c>
+      <c r="C617">
+        <v>239</v>
+      </c>
+      <c r="D617" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E617">
+        <v>110</v>
+      </c>
+      <c r="F617" t="s">
+        <v>171</v>
+      </c>
+      <c r="G617" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H617" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="A618">
+        <v>1487</v>
+      </c>
+      <c r="B618" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618">
+        <v>252</v>
+      </c>
+      <c r="D618" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E618">
+        <v>110</v>
+      </c>
+      <c r="F618" t="s">
+        <v>155</v>
+      </c>
+      <c r="G618" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H618" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8">
+      <c r="A619">
+        <v>1488</v>
+      </c>
+      <c r="B619" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619">
+        <v>253</v>
+      </c>
+      <c r="D619" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E619">
+        <v>110</v>
+      </c>
+      <c r="F619" t="s">
+        <v>156</v>
+      </c>
+      <c r="G619" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H619" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
+      <c r="A620">
+        <v>1489</v>
+      </c>
+      <c r="B620" t="s">
+        <v>7</v>
+      </c>
+      <c r="C620">
+        <v>254</v>
+      </c>
+      <c r="D620" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E620">
+        <v>110</v>
+      </c>
+      <c r="F620" t="s">
+        <v>156</v>
+      </c>
+      <c r="G620" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H620" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621">
+        <v>1490</v>
+      </c>
+      <c r="B621" t="s">
+        <v>7</v>
+      </c>
+      <c r="C621">
+        <v>255</v>
+      </c>
+      <c r="D621" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E621">
+        <v>110</v>
+      </c>
+      <c r="F621" t="s">
+        <v>156</v>
+      </c>
+      <c r="G621" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H621" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8">
+      <c r="A622">
+        <v>1491</v>
+      </c>
+      <c r="B622" t="s">
+        <v>7</v>
+      </c>
+      <c r="C622">
+        <v>256</v>
+      </c>
+      <c r="D622" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E622">
+        <v>110</v>
+      </c>
+      <c r="F622" t="s">
+        <v>156</v>
+      </c>
+      <c r="G622" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H622" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8">
+      <c r="A623">
+        <v>1492</v>
+      </c>
+      <c r="B623" t="s">
+        <v>7</v>
+      </c>
+      <c r="C623">
+        <v>257</v>
+      </c>
+      <c r="D623" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E623">
+        <v>110</v>
+      </c>
+      <c r="F623" t="s">
+        <v>156</v>
+      </c>
+      <c r="G623" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H623" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8">
+      <c r="A624">
+        <v>1551</v>
+      </c>
+      <c r="B624" t="s">
+        <v>7</v>
+      </c>
+      <c r="C624">
+        <v>443</v>
+      </c>
+      <c r="D624" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E624">
+        <v>8</v>
+      </c>
+      <c r="F624" t="s">
+        <v>124</v>
+      </c>
+      <c r="G624" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H624" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625">
+        <v>1149</v>
+      </c>
+      <c r="B625" t="s">
+        <v>20</v>
+      </c>
+      <c r="C625">
+        <v>447</v>
+      </c>
+      <c r="D625" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E625">
+        <v>8</v>
+      </c>
+      <c r="F625" t="s">
+        <v>123</v>
+      </c>
+      <c r="G625" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H625" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="A626">
+        <v>1150</v>
+      </c>
+      <c r="B626" t="s">
+        <v>26</v>
+      </c>
+      <c r="C626">
+        <v>449</v>
+      </c>
+      <c r="D626" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E626">
+        <v>8</v>
+      </c>
+      <c r="F626" t="s">
+        <v>169</v>
+      </c>
+      <c r="G626" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H626" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="A627">
+        <v>1151</v>
+      </c>
+      <c r="B627" t="s">
+        <v>7</v>
+      </c>
+      <c r="C627">
+        <v>450</v>
+      </c>
+      <c r="D627" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E627">
+        <v>8</v>
+      </c>
+      <c r="F627" t="s">
+        <v>123</v>
+      </c>
+      <c r="G627" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H627" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8">
+      <c r="A628">
+        <v>1152</v>
+      </c>
+      <c r="B628" t="s">
+        <v>12</v>
+      </c>
+      <c r="C628">
+        <v>451</v>
+      </c>
+      <c r="D628" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E628">
+        <v>8</v>
+      </c>
+      <c r="F628" t="s">
+        <v>169</v>
+      </c>
+      <c r="G628" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H628" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="A629">
+        <v>1154</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629">
+        <v>454</v>
+      </c>
+      <c r="D629" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E629">
+        <v>8</v>
+      </c>
+      <c r="F629" t="s">
+        <v>169</v>
+      </c>
+      <c r="G629" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H629" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="A630">
+        <v>1153</v>
+      </c>
+      <c r="B630" t="s">
+        <v>38</v>
+      </c>
+      <c r="C630">
+        <v>454</v>
+      </c>
+      <c r="D630" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E630">
+        <v>8</v>
+      </c>
+      <c r="F630" t="s">
+        <v>169</v>
+      </c>
+      <c r="G630" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H630" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8">
+      <c r="A631">
+        <v>1472</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+      <c r="C631">
+        <v>456</v>
+      </c>
+      <c r="D631" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E631">
+        <v>99</v>
+      </c>
+      <c r="F631" t="s">
+        <v>154</v>
+      </c>
+      <c r="G631" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H631" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8">
+      <c r="A632">
+        <v>2092</v>
+      </c>
+      <c r="B632" t="s">
+        <v>10</v>
+      </c>
+      <c r="C632">
+        <v>1071</v>
+      </c>
+      <c r="D632" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E632">
+        <v>70</v>
+      </c>
+      <c r="F632" t="s">
+        <v>149</v>
+      </c>
+      <c r="G632" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H632" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633">
+        <v>2091</v>
+      </c>
+      <c r="B633" t="s">
+        <v>12</v>
+      </c>
+      <c r="C633">
+        <v>1071</v>
+      </c>
+      <c r="D633" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E633">
+        <v>70</v>
+      </c>
+      <c r="F633" t="s">
+        <v>149</v>
+      </c>
+      <c r="G633" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H633" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="A634">
+        <v>2131</v>
+      </c>
+      <c r="B634" t="s">
+        <v>22</v>
+      </c>
+      <c r="C634">
+        <v>1078</v>
+      </c>
+      <c r="D634" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E634">
+        <v>70</v>
+      </c>
+      <c r="F634" t="s">
+        <v>172</v>
+      </c>
+      <c r="G634" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H634" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8">
+      <c r="A635">
+        <v>2132</v>
+      </c>
+      <c r="B635" t="s">
+        <v>22</v>
+      </c>
+      <c r="C635">
+        <v>1078</v>
+      </c>
+      <c r="D635" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E635">
+        <v>468</v>
+      </c>
+      <c r="F635" t="s">
+        <v>173</v>
+      </c>
+      <c r="G635" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H635" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636">
+        <v>2138</v>
+      </c>
+      <c r="B636" t="s">
+        <v>26</v>
+      </c>
+      <c r="C636">
+        <v>1080</v>
+      </c>
+      <c r="D636" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E636">
+        <v>468</v>
+      </c>
+      <c r="F636" t="s">
+        <v>174</v>
+      </c>
+      <c r="G636" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H636" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
+      <c r="A637">
+        <v>2231</v>
+      </c>
+      <c r="B637" t="s">
+        <v>20</v>
+      </c>
+      <c r="C637">
+        <v>1113</v>
+      </c>
+      <c r="D637" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E637">
+        <v>56</v>
+      </c>
+      <c r="F637" t="s">
+        <v>144</v>
+      </c>
+      <c r="G637" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H637" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="A638">
+        <v>2233</v>
+      </c>
+      <c r="B638" t="s">
+        <v>12</v>
+      </c>
+      <c r="C638">
+        <v>1114</v>
+      </c>
+      <c r="D638" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E638">
+        <v>56</v>
+      </c>
+      <c r="F638" t="s">
+        <v>144</v>
+      </c>
+      <c r="G638" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H638" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639">
+        <v>2236</v>
+      </c>
+      <c r="B639" t="s">
+        <v>12</v>
+      </c>
+      <c r="C639">
+        <v>1115</v>
+      </c>
+      <c r="D639" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E639">
+        <v>56</v>
+      </c>
+      <c r="F639" t="s">
+        <v>144</v>
+      </c>
+      <c r="G639" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H639" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640">
+        <v>2240</v>
+      </c>
+      <c r="B640" t="s">
+        <v>38</v>
+      </c>
+      <c r="C640">
+        <v>1115</v>
+      </c>
+      <c r="D640" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E640">
+        <v>56</v>
+      </c>
+      <c r="F640" t="s">
+        <v>144</v>
+      </c>
+      <c r="G640" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H640" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="A641">
+        <v>2299</v>
+      </c>
+      <c r="B641" t="s">
+        <v>38</v>
+      </c>
+      <c r="C641">
+        <v>1136</v>
+      </c>
+      <c r="D641" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E641">
+        <v>8</v>
+      </c>
+      <c r="F641" t="s">
+        <v>169</v>
+      </c>
+      <c r="G641" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H641" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
+      <c r="A642">
+        <v>2300</v>
+      </c>
+      <c r="B642" t="s">
+        <v>20</v>
+      </c>
+      <c r="C642">
+        <v>1136</v>
+      </c>
+      <c r="D642" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E642">
+        <v>8</v>
+      </c>
+      <c r="F642" t="s">
+        <v>169</v>
+      </c>
+      <c r="G642" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H642" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8">
+      <c r="A643">
+        <v>2301</v>
+      </c>
+      <c r="B643" t="s">
+        <v>35</v>
+      </c>
+      <c r="C643">
+        <v>1136</v>
+      </c>
+      <c r="D643" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E643">
+        <v>8</v>
+      </c>
+      <c r="F643" t="s">
+        <v>169</v>
+      </c>
+      <c r="G643" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H643" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8">
+      <c r="A644">
+        <v>2304</v>
+      </c>
+      <c r="B644" t="s">
+        <v>38</v>
+      </c>
+      <c r="C644">
+        <v>1137</v>
+      </c>
+      <c r="D644" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E644">
+        <v>8</v>
+      </c>
+      <c r="F644" t="s">
+        <v>167</v>
+      </c>
+      <c r="G644" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H644" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="A645">
+        <v>2305</v>
+      </c>
+      <c r="B645" t="s">
+        <v>20</v>
+      </c>
+      <c r="C645">
+        <v>1137</v>
+      </c>
+      <c r="D645" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E645">
+        <v>8</v>
+      </c>
+      <c r="F645" t="s">
+        <v>167</v>
+      </c>
+      <c r="G645" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H645" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8">
+      <c r="A646">
+        <v>2306</v>
+      </c>
+      <c r="B646" t="s">
+        <v>38</v>
+      </c>
+      <c r="C646">
+        <v>1138</v>
+      </c>
+      <c r="D646" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E646">
+        <v>8</v>
+      </c>
+      <c r="F646" t="s">
+        <v>167</v>
+      </c>
+      <c r="G646" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H646" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8">
+      <c r="A647">
+        <v>2307</v>
+      </c>
+      <c r="B647" t="s">
+        <v>20</v>
+      </c>
+      <c r="C647">
+        <v>1138</v>
+      </c>
+      <c r="D647" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E647">
+        <v>8</v>
+      </c>
+      <c r="F647" t="s">
+        <v>167</v>
+      </c>
+      <c r="G647" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H647" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8">
+      <c r="A648">
+        <v>2308</v>
+      </c>
+      <c r="B648" t="s">
+        <v>38</v>
+      </c>
+      <c r="C648">
+        <v>1139</v>
+      </c>
+      <c r="D648" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E648">
+        <v>8</v>
+      </c>
+      <c r="F648" t="s">
+        <v>169</v>
+      </c>
+      <c r="G648" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H648" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8">
+      <c r="A649">
+        <v>2309</v>
+      </c>
+      <c r="B649" t="s">
+        <v>20</v>
+      </c>
+      <c r="C649">
+        <v>1139</v>
+      </c>
+      <c r="D649" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E649">
+        <v>8</v>
+      </c>
+      <c r="F649" t="s">
+        <v>169</v>
+      </c>
+      <c r="G649" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H649" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8">
+      <c r="A650">
+        <v>2310</v>
+      </c>
+      <c r="B650" t="s">
+        <v>38</v>
+      </c>
+      <c r="C650">
+        <v>1140</v>
+      </c>
+      <c r="D650" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E650">
+        <v>8</v>
+      </c>
+      <c r="F650" t="s">
+        <v>167</v>
+      </c>
+      <c r="G650" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H650" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8">
+      <c r="A651">
+        <v>2311</v>
+      </c>
+      <c r="B651" t="s">
+        <v>20</v>
+      </c>
+      <c r="C651">
+        <v>1140</v>
+      </c>
+      <c r="D651" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E651">
+        <v>8</v>
+      </c>
+      <c r="F651" t="s">
+        <v>167</v>
+      </c>
+      <c r="G651" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H651" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8">
+      <c r="A652">
+        <v>2312</v>
+      </c>
+      <c r="B652" t="s">
+        <v>38</v>
+      </c>
+      <c r="C652">
+        <v>1141</v>
+      </c>
+      <c r="D652" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E652">
+        <v>8</v>
+      </c>
+      <c r="F652" t="s">
+        <v>167</v>
+      </c>
+      <c r="G652" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H652" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8">
+      <c r="A653">
+        <v>2314</v>
+      </c>
+      <c r="B653" t="s">
+        <v>38</v>
+      </c>
+      <c r="C653">
+        <v>1142</v>
+      </c>
+      <c r="D653" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E653">
+        <v>8</v>
+      </c>
+      <c r="F653" t="s">
+        <v>167</v>
+      </c>
+      <c r="G653" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H653" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="A654">
+        <v>2316</v>
+      </c>
+      <c r="B654" t="s">
+        <v>12</v>
+      </c>
+      <c r="C654">
+        <v>1142</v>
+      </c>
+      <c r="D654" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E654">
+        <v>8</v>
+      </c>
+      <c r="F654" t="s">
+        <v>167</v>
+      </c>
+      <c r="G654" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H654" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8">
+      <c r="A655">
+        <v>2315</v>
+      </c>
+      <c r="B655" t="s">
+        <v>7</v>
+      </c>
+      <c r="C655">
+        <v>1142</v>
+      </c>
+      <c r="D655" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E655">
+        <v>8</v>
+      </c>
+      <c r="F655" t="s">
+        <v>167</v>
+      </c>
+      <c r="G655" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H655" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8">
+      <c r="A656">
+        <v>2320</v>
+      </c>
+      <c r="B656" t="s">
+        <v>7</v>
+      </c>
+      <c r="C656">
+        <v>1143</v>
+      </c>
+      <c r="D656" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E656">
+        <v>8</v>
+      </c>
+      <c r="F656" t="s">
+        <v>169</v>
+      </c>
+      <c r="G656" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H656" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657">
+        <v>2319</v>
+      </c>
+      <c r="B657" t="s">
+        <v>38</v>
+      </c>
+      <c r="C657">
+        <v>1143</v>
+      </c>
+      <c r="D657" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E657">
+        <v>8</v>
+      </c>
+      <c r="F657" t="s">
+        <v>169</v>
+      </c>
+      <c r="G657" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H657" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="A658">
+        <v>2321</v>
+      </c>
+      <c r="B658" t="s">
+        <v>38</v>
+      </c>
+      <c r="C658">
+        <v>1144</v>
+      </c>
+      <c r="D658" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E658">
+        <v>8</v>
+      </c>
+      <c r="F658" t="s">
+        <v>169</v>
+      </c>
+      <c r="G658" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H658" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8">
+      <c r="A659">
+        <v>2331</v>
+      </c>
+      <c r="B659" t="s">
+        <v>22</v>
+      </c>
+      <c r="C659">
+        <v>1149</v>
+      </c>
+      <c r="D659" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E659">
+        <v>82</v>
+      </c>
+      <c r="F659" t="s">
+        <v>151</v>
+      </c>
+      <c r="G659" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H659" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8">
+      <c r="A660">
+        <v>2335</v>
+      </c>
+      <c r="B660" t="s">
+        <v>22</v>
+      </c>
+      <c r="C660">
+        <v>1150</v>
+      </c>
+      <c r="D660" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E660">
+        <v>82</v>
+      </c>
+      <c r="F660" t="s">
+        <v>151</v>
+      </c>
+      <c r="G660" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H660" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
+      <c r="A661">
+        <v>2333</v>
+      </c>
+      <c r="B661" t="s">
+        <v>38</v>
+      </c>
+      <c r="C661">
+        <v>1150</v>
+      </c>
+      <c r="D661" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E661">
+        <v>82</v>
+      </c>
+      <c r="F661" t="s">
+        <v>151</v>
+      </c>
+      <c r="G661" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H661" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="A662">
+        <v>2338</v>
+      </c>
+      <c r="B662" t="s">
+        <v>12</v>
+      </c>
+      <c r="C662">
+        <v>1151</v>
+      </c>
+      <c r="D662" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E662">
+        <v>82</v>
+      </c>
+      <c r="F662" t="s">
+        <v>151</v>
+      </c>
+      <c r="G662" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H662" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8">
+      <c r="A663">
+        <v>3265</v>
+      </c>
+      <c r="B663" t="s">
+        <v>22</v>
+      </c>
+      <c r="C663">
+        <v>2033</v>
+      </c>
+      <c r="D663" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E663">
+        <v>70</v>
+      </c>
+      <c r="F663" t="s">
+        <v>172</v>
+      </c>
+      <c r="G663" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H663" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8">
+      <c r="A664">
+        <v>3268</v>
+      </c>
+      <c r="B664" t="s">
+        <v>38</v>
+      </c>
+      <c r="C664">
+        <v>2035</v>
+      </c>
+      <c r="D664" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E664">
+        <v>70</v>
+      </c>
+      <c r="F664" t="s">
+        <v>149</v>
+      </c>
+      <c r="G664" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H664" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="A665">
+        <v>3354</v>
+      </c>
+      <c r="B665" t="s">
+        <v>22</v>
+      </c>
+      <c r="C665">
+        <v>2078</v>
+      </c>
+      <c r="D665" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E665">
+        <v>8</v>
+      </c>
+      <c r="F665" t="s">
+        <v>124</v>
+      </c>
+      <c r="G665" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H665" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
+      <c r="A666">
+        <v>3373</v>
+      </c>
+      <c r="B666" t="s">
+        <v>22</v>
+      </c>
+      <c r="C666">
+        <v>2089</v>
+      </c>
+      <c r="D666" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E666">
+        <v>56</v>
+      </c>
+      <c r="F666" t="s">
+        <v>143</v>
+      </c>
+      <c r="G666" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H666" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8">
+      <c r="A667">
+        <v>3385</v>
+      </c>
+      <c r="B667" t="s">
+        <v>22</v>
+      </c>
+      <c r="C667">
+        <v>2096</v>
+      </c>
+      <c r="D667" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E667">
+        <v>56</v>
+      </c>
+      <c r="F667" t="s">
+        <v>143</v>
+      </c>
+      <c r="G667" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H667" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
+      <c r="A668">
+        <v>3384</v>
+      </c>
+      <c r="B668" t="s">
+        <v>38</v>
+      </c>
+      <c r="C668">
+        <v>2096</v>
+      </c>
+      <c r="D668" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E668">
+        <v>56</v>
+      </c>
+      <c r="F668" t="s">
+        <v>143</v>
+      </c>
+      <c r="G668" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H668" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
+      <c r="A669">
+        <v>3386</v>
+      </c>
+      <c r="B669" t="s">
+        <v>38</v>
+      </c>
+      <c r="C669">
+        <v>2097</v>
+      </c>
+      <c r="D669" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E669">
+        <v>56</v>
+      </c>
+      <c r="F669" t="s">
+        <v>143</v>
+      </c>
+      <c r="G669" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H669" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8">
+      <c r="A670">
+        <v>3523</v>
+      </c>
+      <c r="B670" t="s">
+        <v>22</v>
+      </c>
+      <c r="C670">
+        <v>2155</v>
+      </c>
+      <c r="D670" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E670">
+        <v>99</v>
+      </c>
+      <c r="F670" t="s">
+        <v>154</v>
+      </c>
+      <c r="G670" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H670" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
+      <c r="A671">
+        <v>3564</v>
+      </c>
+      <c r="B671" t="s">
+        <v>22</v>
+      </c>
+      <c r="C671">
+        <v>2173</v>
+      </c>
+      <c r="D671" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E671">
+        <v>70</v>
+      </c>
+      <c r="F671" t="s">
+        <v>172</v>
+      </c>
+      <c r="G671" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H671" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8">
+      <c r="A672">
+        <v>3587</v>
+      </c>
+      <c r="B672" t="s">
+        <v>22</v>
+      </c>
+      <c r="C672">
+        <v>2184</v>
+      </c>
+      <c r="D672" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E672">
+        <v>70</v>
+      </c>
+      <c r="F672" t="s">
+        <v>172</v>
+      </c>
+      <c r="G672" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H672" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8">
+      <c r="A673">
+        <v>4271</v>
+      </c>
+      <c r="B673" t="s">
+        <v>38</v>
+      </c>
+      <c r="C673">
+        <v>7066</v>
+      </c>
+      <c r="D673" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E673">
+        <v>67</v>
+      </c>
+      <c r="F673" t="s">
+        <v>145</v>
+      </c>
+      <c r="G673" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H673" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8">
+      <c r="A674">
+        <v>4273</v>
+      </c>
+      <c r="B674" t="s">
+        <v>22</v>
+      </c>
+      <c r="C674">
+        <v>7066</v>
+      </c>
+      <c r="D674" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E674">
+        <v>67</v>
+      </c>
+      <c r="F674" t="s">
+        <v>145</v>
+      </c>
+      <c r="G674" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H674" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8">
+      <c r="A675">
+        <v>4325</v>
+      </c>
+      <c r="B675" t="s">
+        <v>22</v>
+      </c>
+      <c r="C675">
+        <v>7103</v>
+      </c>
+      <c r="D675" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E675">
+        <v>67</v>
+      </c>
+      <c r="F675" t="s">
+        <v>175</v>
+      </c>
+      <c r="G675" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H675" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8">
+      <c r="A676">
+        <v>4332</v>
+      </c>
+      <c r="B676" t="s">
+        <v>22</v>
+      </c>
+      <c r="C676">
+        <v>7108</v>
+      </c>
+      <c r="D676" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E676">
+        <v>67</v>
+      </c>
+      <c r="F676" t="s">
+        <v>176</v>
+      </c>
+      <c r="G676" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H676" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8">
+      <c r="A677">
+        <v>4470</v>
+      </c>
+      <c r="B677" t="s">
+        <v>22</v>
+      </c>
+      <c r="C677">
+        <v>7190</v>
+      </c>
+      <c r="D677" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E677">
+        <v>67</v>
+      </c>
+      <c r="F677" t="s">
+        <v>176</v>
+      </c>
+      <c r="G677" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H677" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
+      <c r="A678">
+        <v>4475</v>
+      </c>
+      <c r="B678" t="s">
+        <v>22</v>
+      </c>
+      <c r="C678">
+        <v>7192</v>
+      </c>
+      <c r="D678" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E678">
+        <v>67</v>
+      </c>
+      <c r="F678" t="s">
+        <v>176</v>
+      </c>
+      <c r="G678" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H678" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
+      <c r="A679">
+        <v>4477</v>
+      </c>
+      <c r="B679" t="s">
+        <v>22</v>
+      </c>
+      <c r="C679">
+        <v>7193</v>
+      </c>
+      <c r="D679" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E679">
+        <v>67</v>
+      </c>
+      <c r="F679" t="s">
+        <v>175</v>
+      </c>
+      <c r="G679" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H679" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8">
+      <c r="A680">
+        <v>4480</v>
+      </c>
+      <c r="B680" t="s">
+        <v>147</v>
+      </c>
+      <c r="C680">
+        <v>7194</v>
+      </c>
+      <c r="D680" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E680">
+        <v>67</v>
+      </c>
+      <c r="F680" t="s">
+        <v>175</v>
+      </c>
+      <c r="G680" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H680" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
+      <c r="A681">
+        <v>4483</v>
+      </c>
+      <c r="B681" t="s">
+        <v>147</v>
+      </c>
+      <c r="C681">
+        <v>7195</v>
+      </c>
+      <c r="D681" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E681">
+        <v>67</v>
+      </c>
+      <c r="F681" t="s">
+        <v>175</v>
+      </c>
+      <c r="G681" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H681" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
+      <c r="A682">
+        <v>4487</v>
+      </c>
+      <c r="B682" t="s">
+        <v>38</v>
+      </c>
+      <c r="C682">
+        <v>7197</v>
+      </c>
+      <c r="D682" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E682">
+        <v>67</v>
+      </c>
+      <c r="F682" t="s">
+        <v>175</v>
+      </c>
+      <c r="G682" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H682" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8">
+      <c r="A683">
+        <v>4490</v>
+      </c>
+      <c r="B683" t="s">
+        <v>38</v>
+      </c>
+      <c r="C683">
+        <v>7198</v>
+      </c>
+      <c r="D683" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E683">
+        <v>67</v>
+      </c>
+      <c r="F683" t="s">
+        <v>175</v>
+      </c>
+      <c r="G683" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H683" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684">
+        <v>4493</v>
+      </c>
+      <c r="B684" t="s">
+        <v>22</v>
+      </c>
+      <c r="C684">
+        <v>7199</v>
+      </c>
+      <c r="D684" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E684">
+        <v>67</v>
+      </c>
+      <c r="F684" t="s">
+        <v>175</v>
+      </c>
+      <c r="G684" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H684" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
+      <c r="A685">
+        <v>4498</v>
+      </c>
+      <c r="B685" t="s">
+        <v>147</v>
+      </c>
+      <c r="C685">
+        <v>7202</v>
+      </c>
+      <c r="D685" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E685">
+        <v>67</v>
+      </c>
+      <c r="F685" t="s">
+        <v>175</v>
+      </c>
+      <c r="G685" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H685" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8">
+      <c r="A686">
+        <v>4549</v>
+      </c>
+      <c r="B686" t="s">
+        <v>35</v>
+      </c>
+      <c r="C686">
+        <v>7226</v>
+      </c>
+      <c r="D686" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E686">
+        <v>56</v>
+      </c>
+      <c r="F686" t="s">
+        <v>143</v>
+      </c>
+      <c r="G686" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H686" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8">
+      <c r="A687">
+        <v>4547</v>
+      </c>
+      <c r="B687" t="s">
+        <v>38</v>
+      </c>
+      <c r="C687">
+        <v>7226</v>
+      </c>
+      <c r="D687" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E687">
+        <v>56</v>
+      </c>
+      <c r="F687" t="s">
+        <v>143</v>
+      </c>
+      <c r="G687" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H687" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8">
+      <c r="A688">
+        <v>4550</v>
+      </c>
+      <c r="B688" t="s">
+        <v>38</v>
+      </c>
+      <c r="C688">
+        <v>7227</v>
+      </c>
+      <c r="D688" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E688">
+        <v>56</v>
+      </c>
+      <c r="F688" t="s">
+        <v>143</v>
+      </c>
+      <c r="G688" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H688" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8">
+      <c r="A689">
+        <v>4551</v>
+      </c>
+      <c r="B689" t="s">
+        <v>22</v>
+      </c>
+      <c r="C689">
+        <v>7227</v>
+      </c>
+      <c r="D689" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E689">
+        <v>56</v>
+      </c>
+      <c r="F689" t="s">
+        <v>143</v>
+      </c>
+      <c r="G689" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H689" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8">
+      <c r="A690">
+        <v>4552</v>
+      </c>
+      <c r="B690" t="s">
+        <v>38</v>
+      </c>
+      <c r="C690">
+        <v>7228</v>
+      </c>
+      <c r="D690" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E690">
+        <v>56</v>
+      </c>
+      <c r="F690" t="s">
+        <v>144</v>
+      </c>
+      <c r="G690" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H690" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8">
+      <c r="A691">
+        <v>4553</v>
+      </c>
+      <c r="B691" t="s">
+        <v>38</v>
+      </c>
+      <c r="C691">
+        <v>7229</v>
+      </c>
+      <c r="D691" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E691">
+        <v>56</v>
+      </c>
+      <c r="F691" t="s">
+        <v>144</v>
+      </c>
+      <c r="G691" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H691" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8">
+      <c r="A692">
+        <v>4554</v>
+      </c>
+      <c r="B692" t="s">
+        <v>22</v>
+      </c>
+      <c r="C692">
+        <v>7229</v>
+      </c>
+      <c r="D692" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E692">
+        <v>56</v>
+      </c>
+      <c r="F692" t="s">
+        <v>144</v>
+      </c>
+      <c r="G692" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H692" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8">
+      <c r="A693">
+        <v>8097</v>
+      </c>
+      <c r="C693">
+        <v>9098</v>
+      </c>
+      <c r="D693" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E693">
+        <v>56</v>
+      </c>
+      <c r="F693" t="s">
+        <v>177</v>
+      </c>
+      <c r="G693" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H693" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8">
+      <c r="A694">
+        <v>8098</v>
+      </c>
+      <c r="C694">
+        <v>9098</v>
+      </c>
+      <c r="D694" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E694">
+        <v>56</v>
+      </c>
+      <c r="F694" t="s">
+        <v>177</v>
+      </c>
+      <c r="G694" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H694" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
